--- a/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9989907556634353</v>
+        <v>1.010581232184288</v>
       </c>
       <c r="D2">
-        <v>1.017426176186087</v>
+        <v>1.025777346762792</v>
       </c>
       <c r="E2">
-        <v>1.004820509489848</v>
+        <v>1.023438200937523</v>
       </c>
       <c r="F2">
-        <v>1.014971109987948</v>
+        <v>1.030112934549213</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045203680242668</v>
+        <v>1.046083215209916</v>
       </c>
       <c r="J2">
-        <v>1.021201695016034</v>
+        <v>1.032450001611675</v>
       </c>
       <c r="K2">
-        <v>1.028647959829435</v>
+        <v>1.036888873563045</v>
       </c>
       <c r="L2">
-        <v>1.016213093005606</v>
+        <v>1.034580383027625</v>
       </c>
       <c r="M2">
-        <v>1.026225740371645</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.041168102743169</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006288155942214</v>
+        <v>1.016802114674044</v>
       </c>
       <c r="D3">
-        <v>1.022961251030161</v>
+        <v>1.030447129563965</v>
       </c>
       <c r="E3">
-        <v>1.010920587241586</v>
+        <v>1.028755965399263</v>
       </c>
       <c r="F3">
-        <v>1.021860832565621</v>
+        <v>1.035841146407144</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047909750209057</v>
+        <v>1.047921820217693</v>
       </c>
       <c r="J3">
-        <v>1.026608855060699</v>
+        <v>1.036844986171274</v>
       </c>
       <c r="K3">
-        <v>1.033308531712126</v>
+        <v>1.040704709289487</v>
       </c>
       <c r="L3">
-        <v>1.021415618257872</v>
+        <v>1.039033668294327</v>
       </c>
       <c r="M3">
-        <v>1.032221436827761</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.0460350860417</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010868583546939</v>
+        <v>1.020725237447094</v>
       </c>
       <c r="D4">
-        <v>1.026437637329823</v>
+        <v>1.033394205760232</v>
       </c>
       <c r="E4">
-        <v>1.014754813405331</v>
+        <v>1.032115634634352</v>
       </c>
       <c r="F4">
-        <v>1.02619182161216</v>
+        <v>1.039460669934146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049594290901076</v>
+        <v>1.049070381327848</v>
       </c>
       <c r="J4">
-        <v>1.029998297498846</v>
+        <v>1.039613247416859</v>
       </c>
       <c r="K4">
-        <v>1.036227120028088</v>
+        <v>1.043105629672523</v>
       </c>
       <c r="L4">
-        <v>1.024678363587989</v>
+        <v>1.041841308098823</v>
       </c>
       <c r="M4">
-        <v>1.035984086437148</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.049105070588615</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012762197245207</v>
+        <v>1.022351199802267</v>
       </c>
       <c r="D5">
-        <v>1.027875228506628</v>
+        <v>1.034616067072581</v>
       </c>
       <c r="E5">
-        <v>1.01634112442785</v>
+        <v>1.0335094631673</v>
       </c>
       <c r="F5">
-        <v>1.027983783963729</v>
+        <v>1.040962441678237</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050287279555357</v>
+        <v>1.04954373441539</v>
       </c>
       <c r="J5">
-        <v>1.031398390933822</v>
+        <v>1.04075970559165</v>
       </c>
       <c r="K5">
-        <v>1.037432006329428</v>
+        <v>1.044099323780489</v>
       </c>
       <c r="L5">
-        <v>1.026026489119696</v>
+        <v>1.043004708684256</v>
       </c>
       <c r="M5">
-        <v>1.037539368408107</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.050377545375917</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013078318485094</v>
+        <v>1.022622870599294</v>
       </c>
       <c r="D6">
-        <v>1.028115241751615</v>
+        <v>1.034820242171476</v>
       </c>
       <c r="E6">
-        <v>1.016606011630498</v>
+        <v>1.033742428348768</v>
       </c>
       <c r="F6">
-        <v>1.028283019757302</v>
+        <v>1.041213456823463</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050402764364109</v>
+        <v>1.049622664930833</v>
       </c>
       <c r="J6">
-        <v>1.031632054070101</v>
+        <v>1.040951207003419</v>
       </c>
       <c r="K6">
-        <v>1.037633048771896</v>
+        <v>1.044265270147509</v>
       </c>
       <c r="L6">
-        <v>1.026251500594737</v>
+        <v>1.043199077307668</v>
       </c>
       <c r="M6">
-        <v>1.037798991426598</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.050590158548899</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010894009476228</v>
+        <v>1.020747053798425</v>
       </c>
       <c r="D7">
-        <v>1.026456938693119</v>
+        <v>1.033410598503962</v>
       </c>
       <c r="E7">
-        <v>1.014776108536275</v>
+        <v>1.032134330907732</v>
       </c>
       <c r="F7">
-        <v>1.026215876928342</v>
+        <v>1.039480813563481</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049603609435518</v>
+        <v>1.049076743189281</v>
       </c>
       <c r="J7">
-        <v>1.030017101469116</v>
+        <v>1.039628633508527</v>
       </c>
       <c r="K7">
-        <v>1.03624330510429</v>
+        <v>1.043118968113269</v>
       </c>
       <c r="L7">
-        <v>1.024696468161248</v>
+        <v>1.041856919062958</v>
       </c>
       <c r="M7">
-        <v>1.036004970608679</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.049122143701869</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00148741842528</v>
+        <v>1.012705488128778</v>
       </c>
       <c r="D8">
-        <v>1.019319374244247</v>
+        <v>1.027371443046518</v>
       </c>
       <c r="E8">
-        <v>1.006906346983876</v>
+        <v>1.025252744018487</v>
       </c>
       <c r="F8">
-        <v>1.017326881618253</v>
+        <v>1.032067422674593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046132424752384</v>
+        <v>1.046713314943003</v>
       </c>
       <c r="J8">
-        <v>1.023052561644917</v>
+        <v>1.033951442894598</v>
       </c>
       <c r="K8">
-        <v>1.030243859897102</v>
+        <v>1.038192988120022</v>
       </c>
       <c r="L8">
-        <v>1.01799357308114</v>
+        <v>1.03610117952229</v>
       </c>
       <c r="M8">
-        <v>1.028277154796507</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.042829857257689</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9837349423440458</v>
+        <v>0.9976963722103613</v>
       </c>
       <c r="D9">
-        <v>1.005872034932559</v>
+        <v>1.016121153679975</v>
       </c>
       <c r="E9">
-        <v>0.9921023930258244</v>
+        <v>1.012461067460992</v>
       </c>
       <c r="F9">
-        <v>1.000607781455485</v>
+        <v>1.018291186278974</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039470859976444</v>
+        <v>1.042216674068136</v>
       </c>
       <c r="J9">
-        <v>1.009875431551904</v>
+        <v>1.023330740591572</v>
       </c>
       <c r="K9">
-        <v>1.018870555493687</v>
+        <v>1.028957981181469</v>
       </c>
       <c r="L9">
-        <v>1.005324916292784</v>
+        <v>1.025355156705853</v>
       </c>
       <c r="M9">
-        <v>1.013691005520054</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.031094312103724</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9709615063093834</v>
+        <v>0.9870401426009372</v>
       </c>
       <c r="D10">
-        <v>0.9962207726490661</v>
+        <v>1.008154742989444</v>
       </c>
       <c r="E10">
-        <v>0.9814910460956848</v>
+        <v>1.003420133162613</v>
       </c>
       <c r="F10">
-        <v>0.9886230735095931</v>
+        <v>1.008556535788788</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034607074129895</v>
+        <v>1.038969802168829</v>
       </c>
       <c r="J10">
-        <v>1.000376569291908</v>
+        <v>1.015777555193969</v>
       </c>
       <c r="K10">
-        <v>1.010658599125415</v>
+        <v>1.022378305631048</v>
       </c>
       <c r="L10">
-        <v>0.9962027250148736</v>
+        <v>1.017727909408115</v>
       </c>
       <c r="M10">
-        <v>1.003200825705205</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.022772999016545</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9651691450652432</v>
+        <v>0.9822498440911939</v>
       </c>
       <c r="D11">
-        <v>0.9918523183006582</v>
+        <v>1.004580229845948</v>
       </c>
       <c r="E11">
-        <v>0.9766907528010116</v>
+        <v>0.9993670127697353</v>
       </c>
       <c r="F11">
-        <v>0.9832008378860022</v>
+        <v>1.004192797696051</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032385950943284</v>
+        <v>1.037498243687091</v>
       </c>
       <c r="J11">
-        <v>0.9960663130217481</v>
+        <v>1.012380158989207</v>
       </c>
       <c r="K11">
-        <v>1.006929541249801</v>
+        <v>1.019416283584176</v>
       </c>
       <c r="L11">
-        <v>0.9920660542918923</v>
+        <v>1.014300876183368</v>
       </c>
       <c r="M11">
-        <v>0.998446671198377</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.019036074800343</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.962974498415209</v>
+        <v>0.9804419700823054</v>
       </c>
       <c r="D12">
-        <v>0.9901986063779687</v>
+        <v>1.003232344030926</v>
       </c>
       <c r="E12">
-        <v>0.9748739273141305</v>
+        <v>0.9978391378356448</v>
       </c>
       <c r="F12">
-        <v>0.9811484671847559</v>
+        <v>1.0025478767591</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031542179625805</v>
+        <v>1.036941155043972</v>
       </c>
       <c r="J12">
-        <v>0.994432923541015</v>
+        <v>1.011097761586683</v>
       </c>
       <c r="K12">
-        <v>1.00551602593122</v>
+        <v>1.018297878336983</v>
       </c>
       <c r="L12">
-        <v>0.9904988715457149</v>
+        <v>1.013007853978031</v>
       </c>
       <c r="M12">
-        <v>0.9966459695064052</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.017626425724712</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9634472755147424</v>
+        <v>0.9808310928290875</v>
       </c>
       <c r="D13">
-        <v>0.9905547851888176</v>
+        <v>1.003522405612388</v>
       </c>
       <c r="E13">
-        <v>0.9752652222010761</v>
+        <v>0.9981679114594303</v>
       </c>
       <c r="F13">
-        <v>0.9815904998028996</v>
+        <v>1.002901834918402</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031724045338307</v>
+        <v>1.037061137701279</v>
       </c>
       <c r="J13">
-        <v>0.9947848039344604</v>
+        <v>1.011373789799331</v>
       </c>
       <c r="K13">
-        <v>1.005820555082828</v>
+        <v>1.018538623362521</v>
       </c>
       <c r="L13">
-        <v>0.990836469397564</v>
+        <v>1.013286143561937</v>
       </c>
       <c r="M13">
-        <v>0.9970338528077217</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.017929802885983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9649886382766487</v>
+        <v>0.9821009998128669</v>
       </c>
       <c r="D14">
-        <v>0.9917162722257316</v>
+        <v>1.004469232716348</v>
       </c>
       <c r="E14">
-        <v>0.9765412807847779</v>
+        <v>0.9992411841240038</v>
       </c>
       <c r="F14">
-        <v>0.983031990707106</v>
+        <v>1.00405732884036</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032316596107737</v>
+        <v>1.037452412320448</v>
       </c>
       <c r="J14">
-        <v>0.99593197401318</v>
+        <v>1.012274581468535</v>
       </c>
       <c r="K14">
-        <v>1.00681329323256</v>
+        <v>1.01932421409425</v>
       </c>
       <c r="L14">
-        <v>0.9919371517049039</v>
+        <v>1.014194412470872</v>
       </c>
       <c r="M14">
-        <v>0.9982985530721653</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.01892000237224</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9659324872162783</v>
+        <v>0.9828795828481116</v>
       </c>
       <c r="D15">
-        <v>0.9924277009745794</v>
+        <v>1.005049890349788</v>
       </c>
       <c r="E15">
-        <v>0.9773229325419973</v>
+        <v>0.9998994491224109</v>
       </c>
       <c r="F15">
-        <v>0.9839149568471108</v>
+        <v>1.004766027787587</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032679155077423</v>
+        <v>1.037692080233772</v>
       </c>
       <c r="J15">
-        <v>0.9966344059613164</v>
+        <v>1.012826834370733</v>
       </c>
       <c r="K15">
-        <v>1.007421116070383</v>
+        <v>1.019805795542044</v>
       </c>
       <c r="L15">
-        <v>0.99261117514036</v>
+        <v>1.014751323782219</v>
       </c>
       <c r="M15">
-        <v>0.9990730701339139</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.019527188858924</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9713401033762517</v>
+        <v>0.9873541756517852</v>
       </c>
       <c r="D16">
-        <v>0.9965064863783902</v>
+        <v>1.008389223953442</v>
       </c>
       <c r="E16">
-        <v>0.9818050562920499</v>
+        <v>1.003686079391782</v>
       </c>
       <c r="F16">
-        <v>0.988977749949659</v>
+        <v>1.008842870175649</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034751938082163</v>
+        <v>1.039066029792908</v>
       </c>
       <c r="J16">
-        <v>1.000658246280839</v>
+        <v>1.016000240990173</v>
       </c>
       <c r="K16">
-        <v>1.01090224091882</v>
+        <v>1.022572404875908</v>
       </c>
       <c r="L16">
-        <v>0.9964731152699706</v>
+        <v>1.017952614864865</v>
       </c>
       <c r="M16">
-        <v>1.003511635300843</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.023018064328596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9746596275848187</v>
+        <v>0.990112419139769</v>
       </c>
       <c r="D17">
-        <v>0.999012549529732</v>
+        <v>1.01044950614684</v>
       </c>
       <c r="E17">
-        <v>0.9845596166871847</v>
+        <v>1.006023228135436</v>
       </c>
       <c r="F17">
-        <v>0.99208896164719</v>
+        <v>1.011359232865669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036020360207148</v>
+        <v>1.039909876505474</v>
       </c>
       <c r="J17">
-        <v>1.003127676033547</v>
+        <v>1.017955937781437</v>
       </c>
       <c r="K17">
-        <v>1.013037914509638</v>
+        <v>1.024276765190599</v>
       </c>
       <c r="L17">
-        <v>0.9988438985424165</v>
+        <v>1.019926466169345</v>
       </c>
       <c r="M17">
-        <v>1.006237136574879</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.025170982451424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9765709153061756</v>
+        <v>0.991704418837171</v>
       </c>
       <c r="D18">
-        <v>1.000456213906522</v>
+        <v>1.011639272410492</v>
       </c>
       <c r="E18">
-        <v>0.9861466917402196</v>
+        <v>1.007373214994486</v>
       </c>
       <c r="F18">
-        <v>0.9938814664506805</v>
+        <v>1.012812774297557</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036749214670898</v>
+        <v>1.040395789941618</v>
       </c>
       <c r="J18">
-        <v>1.004549230322157</v>
+        <v>1.019084528450979</v>
       </c>
       <c r="K18">
-        <v>1.014267077148147</v>
+        <v>1.025260076436328</v>
       </c>
       <c r="L18">
-        <v>1.000208914122957</v>
+        <v>1.021065879375588</v>
       </c>
       <c r="M18">
-        <v>1.00780665621092</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.026413947860647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9772184940119236</v>
+        <v>0.9922444537057113</v>
       </c>
       <c r="D19">
-        <v>1.000945473592001</v>
+        <v>1.01204296253487</v>
       </c>
       <c r="E19">
-        <v>0.9866845987713465</v>
+        <v>1.007831326651014</v>
       </c>
       <c r="F19">
-        <v>0.9944889910703416</v>
+        <v>1.013306033289496</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03699591158394</v>
+        <v>1.040560425248594</v>
       </c>
       <c r="J19">
-        <v>1.005030828562035</v>
+        <v>1.019467330771398</v>
       </c>
       <c r="K19">
-        <v>1.014683450943465</v>
+        <v>1.025593560658643</v>
       </c>
       <c r="L19">
-        <v>1.000671399425036</v>
+        <v>1.021452410960816</v>
       </c>
       <c r="M19">
-        <v>1.008338476334979</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.026835639636856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9743060792502328</v>
+        <v>0.9898182416642719</v>
       </c>
       <c r="D20">
-        <v>0.9987455606009861</v>
+        <v>1.010229704074848</v>
       </c>
       <c r="E20">
-        <v>0.9842661269380578</v>
+        <v>1.005773853815039</v>
       </c>
       <c r="F20">
-        <v>0.9917574783402718</v>
+        <v>1.011090732638208</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035885417690332</v>
+        <v>1.039819994456517</v>
       </c>
       <c r="J20">
-        <v>1.002864695150817</v>
+        <v>1.017747374786147</v>
       </c>
       <c r="K20">
-        <v>1.01281050373587</v>
+        <v>1.02409503024537</v>
       </c>
       <c r="L20">
-        <v>0.9985913970015924</v>
+        <v>1.01971593110946</v>
       </c>
       <c r="M20">
-        <v>1.005946827676202</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.024941328520512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9645359687195196</v>
+        <v>0.9817278496945805</v>
       </c>
       <c r="D21">
-        <v>0.9913751237950309</v>
+        <v>1.00419098375779</v>
       </c>
       <c r="E21">
-        <v>0.9761664711926391</v>
+        <v>0.9989257629909161</v>
       </c>
       <c r="F21">
-        <v>0.9826085941803213</v>
+        <v>1.00371774278414</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032142634879955</v>
+        <v>1.037337486505319</v>
       </c>
       <c r="J21">
-        <v>0.9955950784157123</v>
+        <v>1.012009897352114</v>
       </c>
       <c r="K21">
-        <v>1.006521760397419</v>
+        <v>1.019093389309262</v>
       </c>
       <c r="L21">
-        <v>0.9916138965109055</v>
+        <v>1.013927515741908</v>
       </c>
       <c r="M21">
-        <v>0.9979271167787727</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.018629022049874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9581414148021556</v>
+        <v>0.9764747515722718</v>
       </c>
       <c r="D22">
-        <v>0.986559693103062</v>
+        <v>1.000276819697471</v>
       </c>
       <c r="E22">
-        <v>0.9708767030586213</v>
+        <v>0.9944897904082811</v>
       </c>
       <c r="F22">
-        <v>0.9766326769535327</v>
+        <v>0.9989420151557602</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02968006174655</v>
+        <v>1.035715607237752</v>
       </c>
       <c r="J22">
-        <v>0.9908354680469396</v>
+        <v>1.008283378988762</v>
       </c>
       <c r="K22">
-        <v>1.002402191296963</v>
+        <v>1.015842794729529</v>
       </c>
       <c r="L22">
-        <v>0.9870480498996267</v>
+        <v>1.010171201685537</v>
       </c>
       <c r="M22">
-        <v>0.9926817062378147</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014534460108429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9615565698324516</v>
+        <v>0.9792760431592394</v>
       </c>
       <c r="D23">
-        <v>0.9891306021191486</v>
+        <v>1.002363414087317</v>
       </c>
       <c r="E23">
-        <v>0.97370067654792</v>
+        <v>0.9968543067099597</v>
       </c>
       <c r="F23">
-        <v>0.9798230590807195</v>
+        <v>1.001487611816393</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030996422033907</v>
+        <v>1.036581406528463</v>
       </c>
       <c r="J23">
-        <v>0.9933775501802512</v>
+        <v>1.010270676286665</v>
       </c>
       <c r="K23">
-        <v>1.004602618875029</v>
+        <v>1.017576466566366</v>
       </c>
       <c r="L23">
-        <v>0.9894863994904901</v>
+        <v>1.012174075973872</v>
       </c>
       <c r="M23">
-        <v>0.9954827487339718</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.016717526634165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.974465909295549</v>
+        <v>0.9899512196796048</v>
       </c>
       <c r="D24">
-        <v>0.998866257083823</v>
+        <v>1.010329060033173</v>
       </c>
       <c r="E24">
-        <v>0.9843988027187528</v>
+        <v>1.005886576111654</v>
       </c>
       <c r="F24">
-        <v>0.9919073297738019</v>
+        <v>1.011212100121226</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035946426273892</v>
+        <v>1.03986062767129</v>
       </c>
       <c r="J24">
-        <v>1.002983582855234</v>
+        <v>1.017841652820905</v>
       </c>
       <c r="K24">
-        <v>1.012913311813982</v>
+        <v>1.024177181771651</v>
       </c>
       <c r="L24">
-        <v>0.998705546463267</v>
+        <v>1.01981109951571</v>
       </c>
       <c r="M24">
-        <v>1.006078068034554</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.025045138677311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9884779605491207</v>
+        <v>1.001684378860124</v>
       </c>
       <c r="D25">
-        <v>1.009461340358479</v>
+        <v>1.019107300746384</v>
       </c>
       <c r="E25">
-        <v>0.9960513415839899</v>
+        <v>1.015853287967108</v>
       </c>
       <c r="F25">
-        <v>1.005067539438262</v>
+        <v>1.021944092241481</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041263021301009</v>
+        <v>1.043421028523478</v>
       </c>
       <c r="J25">
-        <v>1.01339940795003</v>
+        <v>1.026155189600216</v>
       </c>
       <c r="K25">
-        <v>1.021914535456325</v>
+        <v>1.031416068618972</v>
       </c>
       <c r="L25">
-        <v>1.008711266224996</v>
+        <v>1.028210387674989</v>
       </c>
       <c r="M25">
-        <v>1.017587694449932</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.034211044117374</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010581232184288</v>
+        <v>0.9943448194516373</v>
       </c>
       <c r="D2">
-        <v>1.025777346762792</v>
+        <v>1.016056106986202</v>
       </c>
       <c r="E2">
-        <v>1.023438200937523</v>
+        <v>1.001508959218016</v>
       </c>
       <c r="F2">
-        <v>1.030112934549213</v>
+        <v>1.015704220968171</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046083215209916</v>
+        <v>1.041288903564846</v>
       </c>
       <c r="J2">
-        <v>1.032450001611675</v>
+        <v>1.016696001764908</v>
       </c>
       <c r="K2">
-        <v>1.036888873563045</v>
+        <v>1.027296196425448</v>
       </c>
       <c r="L2">
-        <v>1.034580383027625</v>
+        <v>1.012947311796356</v>
       </c>
       <c r="M2">
-        <v>1.041168102743169</v>
+        <v>1.026949022047417</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016802114674044</v>
+        <v>0.9990819001649955</v>
       </c>
       <c r="D3">
-        <v>1.030447129563965</v>
+        <v>1.019660274568995</v>
       </c>
       <c r="E3">
-        <v>1.028755965399263</v>
+        <v>1.005303487557237</v>
       </c>
       <c r="F3">
-        <v>1.035841146407144</v>
+        <v>1.020056103891781</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047921820217693</v>
+        <v>1.042345381401965</v>
       </c>
       <c r="J3">
-        <v>1.036844986171274</v>
+        <v>1.019597624836913</v>
       </c>
       <c r="K3">
-        <v>1.040704709289487</v>
+        <v>1.030047629812031</v>
       </c>
       <c r="L3">
-        <v>1.039033668294327</v>
+        <v>1.015868956055522</v>
       </c>
       <c r="M3">
-        <v>1.0460350860417</v>
+        <v>1.030438636674193</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020725237447094</v>
+        <v>1.002083699900213</v>
       </c>
       <c r="D4">
-        <v>1.033394205760232</v>
+        <v>1.021946194863557</v>
       </c>
       <c r="E4">
-        <v>1.032115634634352</v>
+        <v>1.007714294320009</v>
       </c>
       <c r="F4">
-        <v>1.039460669934146</v>
+        <v>1.02281881762898</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049070381327848</v>
+        <v>1.043003852525142</v>
       </c>
       <c r="J4">
-        <v>1.039613247416859</v>
+        <v>1.021434254192126</v>
       </c>
       <c r="K4">
-        <v>1.043105629672523</v>
+        <v>1.031786771996732</v>
       </c>
       <c r="L4">
-        <v>1.041841308098823</v>
+        <v>1.017720497752738</v>
       </c>
       <c r="M4">
-        <v>1.049105070588615</v>
+        <v>1.032649424518115</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022351199802267</v>
+        <v>1.003331038928064</v>
       </c>
       <c r="D5">
-        <v>1.034616067072581</v>
+        <v>1.02289648681499</v>
       </c>
       <c r="E5">
-        <v>1.0335094631673</v>
+        <v>1.008717515826199</v>
       </c>
       <c r="F5">
-        <v>1.040962441678237</v>
+        <v>1.023967959773077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04954373441539</v>
+        <v>1.043274782769772</v>
       </c>
       <c r="J5">
-        <v>1.04075970559165</v>
+        <v>1.022196892377641</v>
       </c>
       <c r="K5">
-        <v>1.044099323780489</v>
+        <v>1.032508332063124</v>
       </c>
       <c r="L5">
-        <v>1.043004708684256</v>
+        <v>1.018489864253304</v>
       </c>
       <c r="M5">
-        <v>1.050377545375917</v>
+        <v>1.033567898370289</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022622870599294</v>
+        <v>1.003539631271529</v>
       </c>
       <c r="D6">
-        <v>1.034820242171476</v>
+        <v>1.023055427048878</v>
       </c>
       <c r="E6">
-        <v>1.033742428348768</v>
+        <v>1.00888536872521</v>
       </c>
       <c r="F6">
-        <v>1.041213456823463</v>
+        <v>1.02416019687117</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049622664930833</v>
+        <v>1.043319931286195</v>
       </c>
       <c r="J6">
-        <v>1.040951207003419</v>
+        <v>1.022324395568252</v>
       </c>
       <c r="K6">
-        <v>1.044265270147509</v>
+        <v>1.032628931906487</v>
       </c>
       <c r="L6">
-        <v>1.043199077307668</v>
+        <v>1.018618523821616</v>
       </c>
       <c r="M6">
-        <v>1.050590158548899</v>
+        <v>1.033721482829725</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020747053798425</v>
+        <v>1.002100423618712</v>
       </c>
       <c r="D7">
-        <v>1.033410598503962</v>
+        <v>1.02195893433134</v>
       </c>
       <c r="E7">
-        <v>1.032134330907732</v>
+        <v>1.007727739333282</v>
       </c>
       <c r="F7">
-        <v>1.039480813563481</v>
+        <v>1.022834220290893</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049076743189281</v>
+        <v>1.043007495691256</v>
       </c>
       <c r="J7">
-        <v>1.039628633508527</v>
+        <v>1.021444481448952</v>
       </c>
       <c r="K7">
-        <v>1.043118968113269</v>
+        <v>1.031796450764775</v>
       </c>
       <c r="L7">
-        <v>1.041856919062958</v>
+        <v>1.017730813121431</v>
       </c>
       <c r="M7">
-        <v>1.049122143701869</v>
+        <v>1.032661739732591</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012705488128778</v>
+        <v>0.9959592152486731</v>
       </c>
       <c r="D8">
-        <v>1.027371443046518</v>
+        <v>1.01728394161657</v>
       </c>
       <c r="E8">
-        <v>1.025252744018487</v>
+        <v>1.002800784010142</v>
       </c>
       <c r="F8">
-        <v>1.032067422674593</v>
+        <v>1.017186259686275</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046713314943003</v>
+        <v>1.041651229818202</v>
       </c>
       <c r="J8">
-        <v>1.033951442894598</v>
+        <v>1.017685284946948</v>
       </c>
       <c r="K8">
-        <v>1.038192988120022</v>
+        <v>1.028234771930969</v>
       </c>
       <c r="L8">
-        <v>1.03610117952229</v>
+        <v>1.013942950085414</v>
       </c>
       <c r="M8">
-        <v>1.042829857257689</v>
+        <v>1.028138357619435</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9976963722103613</v>
+        <v>0.984625149754668</v>
       </c>
       <c r="D9">
-        <v>1.016121153679975</v>
+        <v>1.008675126466538</v>
       </c>
       <c r="E9">
-        <v>1.012461067460992</v>
+        <v>0.993760234607342</v>
       </c>
       <c r="F9">
-        <v>1.018291186278974</v>
+        <v>1.0068048942786</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042216674068136</v>
+        <v>1.039062668397237</v>
       </c>
       <c r="J9">
-        <v>1.023330740591572</v>
+        <v>1.010732765235568</v>
       </c>
       <c r="K9">
-        <v>1.028957981181469</v>
+        <v>1.021629006492412</v>
       </c>
       <c r="L9">
-        <v>1.025355156705853</v>
+        <v>1.006955365441071</v>
       </c>
       <c r="M9">
-        <v>1.031094312103724</v>
+        <v>1.019788523252092</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9870401426009372</v>
+        <v>0.976684435341107</v>
       </c>
       <c r="D10">
-        <v>1.008154742989444</v>
+        <v>1.002661375331819</v>
       </c>
       <c r="E10">
-        <v>1.003420133162613</v>
+        <v>0.9874656508453555</v>
       </c>
       <c r="F10">
-        <v>1.008556535788788</v>
+        <v>0.9995641088690971</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038969802168829</v>
+        <v>1.037194281728893</v>
       </c>
       <c r="J10">
-        <v>1.015777555193969</v>
+        <v>1.005854654365167</v>
       </c>
       <c r="K10">
-        <v>1.022378305631048</v>
+        <v>1.016982743511377</v>
       </c>
       <c r="L10">
-        <v>1.017727909408115</v>
+        <v>1.002064965763315</v>
       </c>
       <c r="M10">
-        <v>1.022772999016545</v>
+        <v>1.013941237927382</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9822498440911939</v>
+        <v>0.9731450051533936</v>
       </c>
       <c r="D11">
-        <v>1.004580229845948</v>
+        <v>0.9999861339874461</v>
       </c>
       <c r="E11">
-        <v>0.9993670127697353</v>
+        <v>0.9846701613896334</v>
       </c>
       <c r="F11">
-        <v>1.004192797696051</v>
+        <v>0.9963452655365121</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037498243687091</v>
+        <v>1.03634918764992</v>
       </c>
       <c r="J11">
-        <v>1.012380158989207</v>
+        <v>1.003679289049836</v>
       </c>
       <c r="K11">
-        <v>1.019416283584176</v>
+        <v>1.014908311805852</v>
       </c>
       <c r="L11">
-        <v>1.014300876183368</v>
+        <v>0.9998870845990547</v>
       </c>
       <c r="M11">
-        <v>1.019036074800343</v>
+        <v>1.011336435491035</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9804419700823054</v>
+        <v>0.9718142171509506</v>
       </c>
       <c r="D12">
-        <v>1.003232344030926</v>
+        <v>0.9989811637518301</v>
       </c>
       <c r="E12">
-        <v>0.9978391378356448</v>
+        <v>0.9836207012540708</v>
       </c>
       <c r="F12">
-        <v>1.0025478767591</v>
+        <v>0.9951363899664504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036941155043972</v>
+        <v>1.03602965758019</v>
       </c>
       <c r="J12">
-        <v>1.011097761586683</v>
+        <v>1.002861278360076</v>
       </c>
       <c r="K12">
-        <v>1.018297878336983</v>
+        <v>1.014127909121312</v>
       </c>
       <c r="L12">
-        <v>1.013007853978031</v>
+        <v>0.9990685774613676</v>
       </c>
       <c r="M12">
-        <v>1.017626425724712</v>
+        <v>1.010357366049346</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9808310928290875</v>
+        <v>0.9721004188973299</v>
       </c>
       <c r="D13">
-        <v>1.003522405612388</v>
+        <v>0.9991972525815647</v>
       </c>
       <c r="E13">
-        <v>0.9981679114594303</v>
+        <v>0.9838463258426093</v>
       </c>
       <c r="F13">
-        <v>1.002901834918402</v>
+        <v>0.9953963094964098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037061137701279</v>
+        <v>1.036098455847292</v>
       </c>
       <c r="J13">
-        <v>1.011373789799331</v>
+        <v>1.003037204642818</v>
       </c>
       <c r="K13">
-        <v>1.018538623362521</v>
+        <v>1.014295762475822</v>
       </c>
       <c r="L13">
-        <v>1.013286143561937</v>
+        <v>0.9992445901282305</v>
       </c>
       <c r="M13">
-        <v>1.017929802885983</v>
+        <v>1.010567911274249</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9821009998128669</v>
+        <v>0.9730353354242937</v>
       </c>
       <c r="D14">
-        <v>1.004469232716348</v>
+        <v>0.9999032960603642</v>
       </c>
       <c r="E14">
-        <v>0.9992411841240038</v>
+        <v>0.9845836424999076</v>
       </c>
       <c r="F14">
-        <v>1.00405732884036</v>
+        <v>0.9962456141256185</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037452412320448</v>
+        <v>1.036322891173044</v>
       </c>
       <c r="J14">
-        <v>1.012274581468535</v>
+        <v>1.003611878713179</v>
       </c>
       <c r="K14">
-        <v>1.01932421409425</v>
+        <v>1.014844007561917</v>
       </c>
       <c r="L14">
-        <v>1.014194412470872</v>
+        <v>0.9998196241884797</v>
       </c>
       <c r="M14">
-        <v>1.01892000237224</v>
+        <v>1.011255744006364</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9828795828481116</v>
+        <v>0.9736092085876358</v>
       </c>
       <c r="D15">
-        <v>1.005049890349788</v>
+        <v>1.000336802335409</v>
       </c>
       <c r="E15">
-        <v>0.9998994491224109</v>
+        <v>0.9850364396123167</v>
       </c>
       <c r="F15">
-        <v>1.004766027787587</v>
+        <v>0.9967671205807332</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037692080233772</v>
+        <v>1.036460421489075</v>
       </c>
       <c r="J15">
-        <v>1.012826834370733</v>
+        <v>1.003964615894067</v>
       </c>
       <c r="K15">
-        <v>1.019805795542044</v>
+        <v>1.015180477552602</v>
       </c>
       <c r="L15">
-        <v>1.014751323782219</v>
+        <v>1.000172641738682</v>
       </c>
       <c r="M15">
-        <v>1.019527188858924</v>
+        <v>1.011677994615367</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9873541756517852</v>
+        <v>0.9769171310024224</v>
       </c>
       <c r="D16">
-        <v>1.008389223953442</v>
+        <v>1.002837374085227</v>
       </c>
       <c r="E16">
-        <v>1.003686079391782</v>
+        <v>0.9876496562720495</v>
       </c>
       <c r="F16">
-        <v>1.008842870175649</v>
+        <v>0.9997759139813563</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039066029792908</v>
+        <v>1.037249590688421</v>
       </c>
       <c r="J16">
-        <v>1.016000240990173</v>
+        <v>1.005997654540604</v>
       </c>
       <c r="K16">
-        <v>1.022572404875908</v>
+        <v>1.017119059425828</v>
       </c>
       <c r="L16">
-        <v>1.017952614864865</v>
+        <v>1.002208193393463</v>
       </c>
       <c r="M16">
-        <v>1.023018064328596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.014112525903714</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.990112419139769</v>
+        <v>0.9789644320447768</v>
       </c>
       <c r="D17">
-        <v>1.01044950614684</v>
+        <v>1.004386457002834</v>
       </c>
       <c r="E17">
-        <v>1.006023228135436</v>
+        <v>0.9892697419195344</v>
       </c>
       <c r="F17">
-        <v>1.011359232865669</v>
+        <v>1.001640404555914</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039909876505474</v>
+        <v>1.037734818263111</v>
       </c>
       <c r="J17">
-        <v>1.017955937781437</v>
+        <v>1.007255686586636</v>
       </c>
       <c r="K17">
-        <v>1.024276765190599</v>
+        <v>1.018318010394237</v>
       </c>
       <c r="L17">
-        <v>1.019926466169345</v>
+        <v>1.003468564084933</v>
       </c>
       <c r="M17">
-        <v>1.025170982451424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.015619732542673</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.991704418837171</v>
+        <v>0.9801489029700006</v>
       </c>
       <c r="D18">
-        <v>1.011639272410492</v>
+        <v>1.005283176543564</v>
       </c>
       <c r="E18">
-        <v>1.007373214994486</v>
+        <v>0.9902080088063302</v>
       </c>
       <c r="F18">
-        <v>1.012812774297557</v>
+        <v>1.002719920495001</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040395789941618</v>
+        <v>1.038014377672228</v>
       </c>
       <c r="J18">
-        <v>1.019084528450979</v>
+        <v>1.007983421823165</v>
       </c>
       <c r="K18">
-        <v>1.025260076436328</v>
+        <v>1.019011334393382</v>
       </c>
       <c r="L18">
-        <v>1.021065879375588</v>
+        <v>1.004197932885125</v>
       </c>
       <c r="M18">
-        <v>1.026413947860647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.016491869152312</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9922444537057113</v>
+        <v>0.9805511605566545</v>
       </c>
       <c r="D19">
-        <v>1.01204296253487</v>
+        <v>1.00558779194816</v>
       </c>
       <c r="E19">
-        <v>1.007831326651014</v>
+        <v>0.9905268140951793</v>
       </c>
       <c r="F19">
-        <v>1.013306033289496</v>
+        <v>1.003086669474719</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040560425248594</v>
+        <v>1.038109118370391</v>
       </c>
       <c r="J19">
-        <v>1.019467330771398</v>
+        <v>1.0082305485795</v>
       </c>
       <c r="K19">
-        <v>1.025593560658643</v>
+        <v>1.01924673521935</v>
       </c>
       <c r="L19">
-        <v>1.021452410960816</v>
+        <v>1.004445661871968</v>
       </c>
       <c r="M19">
-        <v>1.026835639636856</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.016788076227577</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9898182416642719</v>
+        <v>0.9787457841201903</v>
       </c>
       <c r="D20">
-        <v>1.010229704074848</v>
+        <v>1.004220965909671</v>
       </c>
       <c r="E20">
-        <v>1.005773853815039</v>
+        <v>0.989096619378897</v>
       </c>
       <c r="F20">
-        <v>1.011090732638208</v>
+        <v>1.001441195786575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039819994456517</v>
+        <v>1.037683117839386</v>
       </c>
       <c r="J20">
-        <v>1.017747374786147</v>
+        <v>1.007121341311636</v>
       </c>
       <c r="K20">
-        <v>1.02409503024537</v>
+        <v>1.018189998567032</v>
       </c>
       <c r="L20">
-        <v>1.01971593110946</v>
+        <v>1.003333939907622</v>
       </c>
       <c r="M20">
-        <v>1.024941328520512</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.015458750753685</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9817278496945805</v>
+        <v>0.9727604774705078</v>
       </c>
       <c r="D21">
-        <v>1.00419098375779</v>
+        <v>0.9996956995813633</v>
       </c>
       <c r="E21">
-        <v>0.9989257629909161</v>
+        <v>0.9843668322362029</v>
       </c>
       <c r="F21">
-        <v>1.00371774278414</v>
+        <v>0.9959958868555782</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037337486505319</v>
+        <v>1.036256957551674</v>
       </c>
       <c r="J21">
-        <v>1.012009897352114</v>
+        <v>1.003442931317809</v>
       </c>
       <c r="K21">
-        <v>1.019093389309262</v>
+        <v>1.014682839321851</v>
       </c>
       <c r="L21">
-        <v>1.013927515741908</v>
+        <v>0.9996505585519093</v>
       </c>
       <c r="M21">
-        <v>1.018629022049874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.011053517550539</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9764747515722718</v>
+        <v>0.9689037098548948</v>
       </c>
       <c r="D22">
-        <v>1.000276819697471</v>
+        <v>0.996784992281846</v>
       </c>
       <c r="E22">
-        <v>0.9944897904082811</v>
+        <v>0.9813285351777445</v>
       </c>
       <c r="F22">
-        <v>0.9989420151557602</v>
+        <v>0.9924951363388684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035715607237752</v>
+        <v>1.03532761950164</v>
       </c>
       <c r="J22">
-        <v>1.008283378988762</v>
+        <v>1.001072133871213</v>
       </c>
       <c r="K22">
-        <v>1.015842794729529</v>
+        <v>1.01242040928751</v>
       </c>
       <c r="L22">
-        <v>1.010171201685537</v>
+        <v>0.9972791791856228</v>
       </c>
       <c r="M22">
-        <v>1.014534460108429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.008216746645152</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9792760431592394</v>
+        <v>0.9709574447300168</v>
       </c>
       <c r="D23">
-        <v>1.002363414087317</v>
+        <v>0.9983344196893135</v>
       </c>
       <c r="E23">
-        <v>0.9968543067099597</v>
+        <v>0.9829455153558397</v>
       </c>
       <c r="F23">
-        <v>1.001487611816393</v>
+        <v>0.994358504011746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036581406528463</v>
+        <v>1.035823447003029</v>
       </c>
       <c r="J23">
-        <v>1.010270676286665</v>
+        <v>1.002334616697613</v>
       </c>
       <c r="K23">
-        <v>1.017576466566366</v>
+        <v>1.013625366015149</v>
       </c>
       <c r="L23">
-        <v>1.012174075973872</v>
+        <v>0.9985417234350785</v>
       </c>
       <c r="M23">
-        <v>1.016717526634165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.009727130317941</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9899512196796048</v>
+        <v>0.9788446115694601</v>
       </c>
       <c r="D24">
-        <v>1.010329060033173</v>
+        <v>1.004295765290455</v>
       </c>
       <c r="E24">
-        <v>1.005886576111654</v>
+        <v>0.9891748666703412</v>
       </c>
       <c r="F24">
-        <v>1.011212100121226</v>
+        <v>1.001531234356329</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03986062767129</v>
+        <v>1.03770648973023</v>
       </c>
       <c r="J24">
-        <v>1.017841652820905</v>
+        <v>1.007182064829371</v>
       </c>
       <c r="K24">
-        <v>1.024177181771651</v>
+        <v>1.018247860121176</v>
       </c>
       <c r="L24">
-        <v>1.01981109951571</v>
+        <v>1.00339478861783</v>
       </c>
       <c r="M24">
-        <v>1.025045138677311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.015531513058497</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001684378860124</v>
+        <v>0.9876199691556813</v>
       </c>
       <c r="D25">
-        <v>1.019107300746384</v>
+        <v>1.010947154774795</v>
       </c>
       <c r="E25">
-        <v>1.015853287967108</v>
+        <v>0.9961425479601287</v>
       </c>
       <c r="F25">
-        <v>1.021944092241481</v>
+        <v>1.009542672267825</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043421028523478</v>
+        <v>1.039756315192291</v>
       </c>
       <c r="J25">
-        <v>1.026155189600216</v>
+        <v>1.01257127641383</v>
       </c>
       <c r="K25">
-        <v>1.031416068618972</v>
+        <v>1.023377874341757</v>
       </c>
       <c r="L25">
-        <v>1.028210387674989</v>
+        <v>1.008801042511183</v>
       </c>
       <c r="M25">
-        <v>1.034211044117374</v>
+        <v>1.021994634898115</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9943448194516373</v>
+        <v>1.028368881697471</v>
       </c>
       <c r="D2">
-        <v>1.016056106986202</v>
+        <v>1.03675252746226</v>
       </c>
       <c r="E2">
-        <v>1.001508959218016</v>
+        <v>1.028335307673828</v>
       </c>
       <c r="F2">
-        <v>1.015704220968171</v>
+        <v>1.043700748209906</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041288903564846</v>
+        <v>1.032044799016489</v>
       </c>
       <c r="J2">
-        <v>1.016696001764908</v>
+        <v>1.033521584377905</v>
       </c>
       <c r="K2">
-        <v>1.027296196425448</v>
+        <v>1.039545370101956</v>
       </c>
       <c r="L2">
-        <v>1.012947311796356</v>
+        <v>1.031152423627581</v>
       </c>
       <c r="M2">
-        <v>1.026949022047417</v>
+        <v>1.046473873974521</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9990819001649955</v>
+        <v>1.029373999598164</v>
       </c>
       <c r="D3">
-        <v>1.019660274568995</v>
+        <v>1.03753676966259</v>
       </c>
       <c r="E3">
-        <v>1.005303487557237</v>
+        <v>1.029190568526886</v>
       </c>
       <c r="F3">
-        <v>1.020056103891781</v>
+        <v>1.044677412616198</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042345381401965</v>
+        <v>1.032202851175256</v>
       </c>
       <c r="J3">
-        <v>1.019597624836913</v>
+        <v>1.034166996776917</v>
       </c>
       <c r="K3">
-        <v>1.030047629812031</v>
+        <v>1.040139346069516</v>
       </c>
       <c r="L3">
-        <v>1.015868956055522</v>
+        <v>1.031815470601121</v>
       </c>
       <c r="M3">
-        <v>1.030438636674193</v>
+        <v>1.047261194033815</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002083699900213</v>
+        <v>1.030024806538999</v>
       </c>
       <c r="D4">
-        <v>1.021946194863557</v>
+        <v>1.038044376230692</v>
       </c>
       <c r="E4">
-        <v>1.007714294320009</v>
+        <v>1.029744717826859</v>
       </c>
       <c r="F4">
-        <v>1.02281881762898</v>
+        <v>1.045310023185288</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043003852525142</v>
+        <v>1.032303792312888</v>
       </c>
       <c r="J4">
-        <v>1.021434254192126</v>
+        <v>1.034584474642876</v>
       </c>
       <c r="K4">
-        <v>1.031786771996732</v>
+        <v>1.040523181880792</v>
       </c>
       <c r="L4">
-        <v>1.017720497752738</v>
+        <v>1.032244605102927</v>
       </c>
       <c r="M4">
-        <v>1.032649424518115</v>
+        <v>1.047770669563353</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003331038928064</v>
+        <v>1.030298507799209</v>
       </c>
       <c r="D5">
-        <v>1.02289648681499</v>
+        <v>1.038257808648253</v>
       </c>
       <c r="E5">
-        <v>1.008717515826199</v>
+        <v>1.0299778578884</v>
       </c>
       <c r="F5">
-        <v>1.023967959773077</v>
+        <v>1.045576125624679</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043274782769772</v>
+        <v>1.032345909297254</v>
       </c>
       <c r="J5">
-        <v>1.022196892377641</v>
+        <v>1.034759946366276</v>
       </c>
       <c r="K5">
-        <v>1.032508332063124</v>
+        <v>1.040684424358479</v>
       </c>
       <c r="L5">
-        <v>1.018489864253304</v>
+        <v>1.032425036076759</v>
       </c>
       <c r="M5">
-        <v>1.033567898370289</v>
+        <v>1.0479848585313</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003539631271529</v>
+        <v>1.030344469411927</v>
       </c>
       <c r="D6">
-        <v>1.023055427048878</v>
+        <v>1.03829364688662</v>
       </c>
       <c r="E6">
-        <v>1.00888536872521</v>
+        <v>1.030017013402576</v>
       </c>
       <c r="F6">
-        <v>1.02416019687117</v>
+        <v>1.04562081433344</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043319931286195</v>
+        <v>1.032352962223883</v>
       </c>
       <c r="J6">
-        <v>1.022324395568252</v>
+        <v>1.03478940670953</v>
       </c>
       <c r="K6">
-        <v>1.032628931906487</v>
+        <v>1.040711490494733</v>
       </c>
       <c r="L6">
-        <v>1.018618523821616</v>
+        <v>1.032455332546184</v>
       </c>
       <c r="M6">
-        <v>1.033721482829725</v>
+        <v>1.048020822093474</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002100423618712</v>
+        <v>1.030028463348434</v>
       </c>
       <c r="D7">
-        <v>1.02195893433134</v>
+        <v>1.038047227990538</v>
       </c>
       <c r="E7">
-        <v>1.007727739333282</v>
+        <v>1.029747832366743</v>
       </c>
       <c r="F7">
-        <v>1.022834220290893</v>
+        <v>1.045313578259438</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043007495691256</v>
+        <v>1.032304356334826</v>
       </c>
       <c r="J7">
-        <v>1.021444481448952</v>
+        <v>1.034586819446919</v>
       </c>
       <c r="K7">
-        <v>1.031796450764775</v>
+        <v>1.040525336891529</v>
       </c>
       <c r="L7">
-        <v>1.017730813121431</v>
+        <v>1.032247015941753</v>
       </c>
       <c r="M7">
-        <v>1.032661739732591</v>
+        <v>1.047773531546597</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9959592152486731</v>
+        <v>1.028708476953156</v>
       </c>
       <c r="D8">
-        <v>1.01728394161657</v>
+        <v>1.037017534151437</v>
       </c>
       <c r="E8">
-        <v>1.002800784010142</v>
+        <v>1.028624193565721</v>
       </c>
       <c r="F8">
-        <v>1.017186259686275</v>
+        <v>1.044030682654666</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041651229818202</v>
+        <v>1.032098488420482</v>
       </c>
       <c r="J8">
-        <v>1.017685284946948</v>
+        <v>1.033739734528175</v>
       </c>
       <c r="K8">
-        <v>1.028234771930969</v>
+        <v>1.039746211379948</v>
       </c>
       <c r="L8">
-        <v>1.013942950085414</v>
+        <v>1.031376482513349</v>
       </c>
       <c r="M8">
-        <v>1.028138357619435</v>
+        <v>1.046739946345816</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.984625149754668</v>
+        <v>1.026385797786912</v>
       </c>
       <c r="D9">
-        <v>1.008675126466538</v>
+        <v>1.035204277350282</v>
       </c>
       <c r="E9">
-        <v>0.993760234607342</v>
+        <v>1.026649900085692</v>
       </c>
       <c r="F9">
-        <v>1.0068048942786</v>
+        <v>1.041775031529055</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039062668397237</v>
+        <v>1.031725563301649</v>
       </c>
       <c r="J9">
-        <v>1.010732765235568</v>
+        <v>1.032245969044678</v>
       </c>
       <c r="K9">
-        <v>1.021629006492412</v>
+        <v>1.038369453064372</v>
       </c>
       <c r="L9">
-        <v>1.006955365441071</v>
+        <v>1.029843283843142</v>
       </c>
       <c r="M9">
-        <v>1.019788523252092</v>
+        <v>1.044918884786762</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.976684435341107</v>
+        <v>1.024839597962745</v>
       </c>
       <c r="D10">
-        <v>1.002661375331819</v>
+        <v>1.033996310673444</v>
       </c>
       <c r="E10">
-        <v>0.9874656508453555</v>
+        <v>1.025337599971993</v>
       </c>
       <c r="F10">
-        <v>0.9995641088690971</v>
+        <v>1.040274671176939</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037194281728893</v>
+        <v>1.031470142858968</v>
       </c>
       <c r="J10">
-        <v>1.005854654365167</v>
+        <v>1.03124943357833</v>
       </c>
       <c r="K10">
-        <v>1.016982743511377</v>
+        <v>1.037449083502132</v>
       </c>
       <c r="L10">
-        <v>1.002064965763315</v>
+        <v>1.028821731659436</v>
       </c>
       <c r="M10">
-        <v>1.013941237927382</v>
+        <v>1.04370506605795</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9731450051533936</v>
+        <v>1.024170616518219</v>
       </c>
       <c r="D11">
-        <v>0.9999861339874461</v>
+        <v>1.033473468291537</v>
       </c>
       <c r="E11">
-        <v>0.9846701613896334</v>
+        <v>1.024770296240014</v>
       </c>
       <c r="F11">
-        <v>0.9963452655365121</v>
+        <v>1.039625819357558</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03634918764992</v>
+        <v>1.031357934775588</v>
       </c>
       <c r="J11">
-        <v>1.003679289049836</v>
+        <v>1.030817767428594</v>
       </c>
       <c r="K11">
-        <v>1.014908311805852</v>
+        <v>1.037049963460744</v>
       </c>
       <c r="L11">
-        <v>0.9998870845990547</v>
+        <v>1.02837953558615</v>
       </c>
       <c r="M11">
-        <v>1.011336435491035</v>
+        <v>1.043179533237487</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9718142171509506</v>
+        <v>1.023922207527438</v>
       </c>
       <c r="D12">
-        <v>0.9989811637518301</v>
+        <v>1.033279294753137</v>
       </c>
       <c r="E12">
-        <v>0.9836207012540708</v>
+        <v>1.024559715216829</v>
       </c>
       <c r="F12">
-        <v>0.9951363899664504</v>
+        <v>1.039384930180452</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03602965758019</v>
+        <v>1.031316014321759</v>
       </c>
       <c r="J12">
-        <v>1.002861278360076</v>
+        <v>1.030657404064482</v>
       </c>
       <c r="K12">
-        <v>1.014127909121312</v>
+        <v>1.036901624060662</v>
       </c>
       <c r="L12">
-        <v>0.9990685774613676</v>
+        <v>1.028215306461055</v>
       </c>
       <c r="M12">
-        <v>1.010357366049346</v>
+        <v>1.04298433663011</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9721004188973299</v>
+        <v>1.023975488449999</v>
       </c>
       <c r="D13">
-        <v>0.9991972525815647</v>
+        <v>1.033320944107484</v>
       </c>
       <c r="E13">
-        <v>0.9838463258426093</v>
+        <v>1.024604879171865</v>
       </c>
       <c r="F13">
-        <v>0.9953963094964098</v>
+        <v>1.039436596132488</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036098455847292</v>
+        <v>1.031325017317561</v>
       </c>
       <c r="J13">
-        <v>1.003037204642818</v>
+        <v>1.03069180359586</v>
       </c>
       <c r="K13">
-        <v>1.014295762475822</v>
+        <v>1.036933447355234</v>
       </c>
       <c r="L13">
-        <v>0.9992445901282305</v>
+        <v>1.028250533150109</v>
       </c>
       <c r="M13">
-        <v>1.010567911274249</v>
+        <v>1.043026206513031</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9730353354242937</v>
+        <v>1.024150081309047</v>
       </c>
       <c r="D14">
-        <v>0.9999032960603642</v>
+        <v>1.033457417158671</v>
       </c>
       <c r="E14">
-        <v>0.9845836424999076</v>
+        <v>1.024752886668094</v>
       </c>
       <c r="F14">
-        <v>0.9962456141256185</v>
+        <v>1.039605904862583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036322891173044</v>
+        <v>1.031354474539408</v>
       </c>
       <c r="J14">
-        <v>1.003611878713179</v>
+        <v>1.030804512215123</v>
       </c>
       <c r="K14">
-        <v>1.014844007561917</v>
+        <v>1.037037703479368</v>
       </c>
       <c r="L14">
-        <v>0.9998196241884797</v>
+        <v>1.028365959898601</v>
       </c>
       <c r="M14">
-        <v>1.011255744006364</v>
+        <v>1.043163398022536</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9736092085876358</v>
+        <v>1.024257664410968</v>
       </c>
       <c r="D15">
-        <v>1.000336802335409</v>
+        <v>1.033541507167938</v>
       </c>
       <c r="E15">
-        <v>0.9850364396123167</v>
+        <v>1.024844097663895</v>
       </c>
       <c r="F15">
-        <v>0.9967671205807332</v>
+        <v>1.039710237923685</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036460421489075</v>
+        <v>1.031372592133688</v>
       </c>
       <c r="J15">
-        <v>1.003964615894067</v>
+        <v>1.030873952642787</v>
       </c>
       <c r="K15">
-        <v>1.015180477552602</v>
+        <v>1.037101927421978</v>
       </c>
       <c r="L15">
-        <v>1.000172641738682</v>
+        <v>1.02843708108973</v>
       </c>
       <c r="M15">
-        <v>1.011677994615367</v>
+        <v>1.043247927548153</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9769171310024224</v>
+        <v>1.024884007326327</v>
       </c>
       <c r="D16">
-        <v>1.002837374085227</v>
+        <v>1.034031014625463</v>
       </c>
       <c r="E16">
-        <v>0.9876496562720495</v>
+        <v>1.025375269749178</v>
       </c>
       <c r="F16">
-        <v>0.9997759139813563</v>
+        <v>1.040317750570225</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037249590688421</v>
+        <v>1.031477555867852</v>
       </c>
       <c r="J16">
-        <v>1.005997654540604</v>
+        <v>1.031278078530242</v>
       </c>
       <c r="K16">
-        <v>1.017119059425828</v>
+        <v>1.037475559338267</v>
       </c>
       <c r="L16">
-        <v>1.002208193393463</v>
+        <v>1.028851081827209</v>
       </c>
       <c r="M16">
-        <v>1.014112525903714</v>
+        <v>1.043739945250767</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9789644320447768</v>
+        <v>1.025277038734184</v>
       </c>
       <c r="D17">
-        <v>1.004386457002834</v>
+        <v>1.034338128085611</v>
       </c>
       <c r="E17">
-        <v>0.9892697419195344</v>
+        <v>1.025708709884793</v>
       </c>
       <c r="F17">
-        <v>1.001640404555914</v>
+        <v>1.040699045846996</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037734818263111</v>
+        <v>1.031542966266989</v>
       </c>
       <c r="J17">
-        <v>1.007255686586636</v>
+        <v>1.031531533727101</v>
       </c>
       <c r="K17">
-        <v>1.018318010394237</v>
+        <v>1.037709770307701</v>
       </c>
       <c r="L17">
-        <v>1.003468564084933</v>
+        <v>1.029110812293813</v>
       </c>
       <c r="M17">
-        <v>1.015619732542673</v>
+        <v>1.044048591280733</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9801489029700006</v>
+        <v>1.025506338732818</v>
       </c>
       <c r="D18">
-        <v>1.005283176543564</v>
+        <v>1.034517282858681</v>
       </c>
       <c r="E18">
-        <v>0.9902080088063302</v>
+        <v>1.025903289624391</v>
       </c>
       <c r="F18">
-        <v>1.002719920495001</v>
+        <v>1.040921527416166</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038014377672228</v>
+        <v>1.031580963739994</v>
       </c>
       <c r="J18">
-        <v>1.007983421823165</v>
+        <v>1.031679354400668</v>
       </c>
       <c r="K18">
-        <v>1.019011334393382</v>
+        <v>1.037846324243439</v>
       </c>
       <c r="L18">
-        <v>1.004197932885125</v>
+        <v>1.029262322405849</v>
       </c>
       <c r="M18">
-        <v>1.016491869152312</v>
+        <v>1.044228624893824</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9805511605566545</v>
+        <v>1.02558453281817</v>
       </c>
       <c r="D19">
-        <v>1.00558779194816</v>
+        <v>1.034578373482767</v>
       </c>
       <c r="E19">
-        <v>0.9905268140951793</v>
+        <v>1.025969651480272</v>
       </c>
       <c r="F19">
-        <v>1.003086669474719</v>
+        <v>1.040997401164867</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038109118370391</v>
+        <v>1.031593893541256</v>
       </c>
       <c r="J19">
-        <v>1.0082305485795</v>
+        <v>1.031729754788909</v>
       </c>
       <c r="K19">
-        <v>1.01924673521935</v>
+        <v>1.03789287585341</v>
       </c>
       <c r="L19">
-        <v>1.004445661871968</v>
+        <v>1.029313985744307</v>
       </c>
       <c r="M19">
-        <v>1.016788076227577</v>
+        <v>1.044290012628003</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9787457841201903</v>
+        <v>1.025234864861444</v>
       </c>
       <c r="D20">
-        <v>1.004220965909671</v>
+        <v>1.034305175570186</v>
       </c>
       <c r="E20">
-        <v>0.989096619378897</v>
+        <v>1.02567292562346</v>
       </c>
       <c r="F20">
-        <v>1.001441195786575</v>
+        <v>1.040658128347206</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037683117839386</v>
+        <v>1.031535964411264</v>
       </c>
       <c r="J20">
-        <v>1.007121341311636</v>
+        <v>1.031504341976894</v>
       </c>
       <c r="K20">
-        <v>1.018189998567032</v>
+        <v>1.037684647614534</v>
       </c>
       <c r="L20">
-        <v>1.003333939907622</v>
+        <v>1.029082944247792</v>
       </c>
       <c r="M20">
-        <v>1.015458750753685</v>
+        <v>1.044015475896613</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9727604774705078</v>
+        <v>1.024098665838249</v>
       </c>
       <c r="D21">
-        <v>0.9996956995813633</v>
+        <v>1.033417228315903</v>
       </c>
       <c r="E21">
-        <v>0.9843668322362029</v>
+        <v>1.024709298253575</v>
       </c>
       <c r="F21">
-        <v>0.9959958868555782</v>
+        <v>1.039556044250607</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036256957551674</v>
+        <v>1.031345806781623</v>
       </c>
       <c r="J21">
-        <v>1.003442931317809</v>
+        <v>1.030771322974829</v>
       </c>
       <c r="K21">
-        <v>1.014682839321851</v>
+        <v>1.037007005084535</v>
       </c>
       <c r="L21">
-        <v>0.9996505585519093</v>
+        <v>1.028331968979763</v>
       </c>
       <c r="M21">
-        <v>1.011053517550539</v>
+        <v>1.043122998268206</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9689037098548948</v>
+        <v>1.023384758382939</v>
       </c>
       <c r="D22">
-        <v>0.996784992281846</v>
+        <v>1.032859134419643</v>
       </c>
       <c r="E22">
-        <v>0.9813285351777445</v>
+        <v>1.024104242838181</v>
       </c>
       <c r="F22">
-        <v>0.9924951363388684</v>
+        <v>1.038863833970388</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03532761950164</v>
+        <v>1.031224850811751</v>
       </c>
       <c r="J22">
-        <v>1.001072133871213</v>
+        <v>1.030310310146396</v>
       </c>
       <c r="K22">
-        <v>1.01242040928751</v>
+        <v>1.036580433000308</v>
       </c>
       <c r="L22">
-        <v>0.9972791791856228</v>
+        <v>1.027859929745268</v>
       </c>
       <c r="M22">
-        <v>1.008216746645152</v>
+        <v>1.042561918603053</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9709574447300168</v>
+        <v>1.02376316993465</v>
       </c>
       <c r="D23">
-        <v>0.9983344196893135</v>
+        <v>1.033154971825677</v>
       </c>
       <c r="E23">
-        <v>0.9829455153558397</v>
+        <v>1.024424916545274</v>
       </c>
       <c r="F23">
-        <v>0.994358504011746</v>
+        <v>1.03923071975992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035823447003029</v>
+        <v>1.031289104077685</v>
       </c>
       <c r="J23">
-        <v>1.002334616697613</v>
+        <v>1.030554714315767</v>
       </c>
       <c r="K23">
-        <v>1.013625366015149</v>
+        <v>1.036806615138075</v>
       </c>
       <c r="L23">
-        <v>0.9985417234350785</v>
+        <v>1.02811015422714</v>
       </c>
       <c r="M23">
-        <v>1.009727130317941</v>
+        <v>1.042859351911091</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9788446115694601</v>
+        <v>1.02525392126022</v>
       </c>
       <c r="D24">
-        <v>1.004295765290455</v>
+        <v>1.034320065329635</v>
       </c>
       <c r="E24">
-        <v>0.9891748666703412</v>
+        <v>1.025689094713596</v>
       </c>
       <c r="F24">
-        <v>1.001531234356329</v>
+        <v>1.040676616961625</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03770648973023</v>
+        <v>1.031539128728367</v>
       </c>
       <c r="J24">
-        <v>1.007182064829371</v>
+        <v>1.031516628806128</v>
       </c>
       <c r="K24">
-        <v>1.018247860121176</v>
+        <v>1.037695999655453</v>
       </c>
       <c r="L24">
-        <v>1.00339478861783</v>
+        <v>1.029095536575849</v>
       </c>
       <c r="M24">
-        <v>1.015531513058497</v>
+        <v>1.044030439295977</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9876199691556813</v>
+        <v>1.026985871177856</v>
       </c>
       <c r="D25">
-        <v>1.010947154774795</v>
+        <v>1.035672899085462</v>
       </c>
       <c r="E25">
-        <v>0.9961425479601287</v>
+        <v>1.027159620203239</v>
       </c>
       <c r="F25">
-        <v>1.009542672267825</v>
+        <v>1.042357575457506</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039756315192291</v>
+        <v>1.031823174562657</v>
       </c>
       <c r="J25">
-        <v>1.01257127641383</v>
+        <v>1.032632268350838</v>
       </c>
       <c r="K25">
-        <v>1.023377874341757</v>
+        <v>1.038725827864696</v>
       </c>
       <c r="L25">
-        <v>1.008801042511183</v>
+        <v>1.030239553651163</v>
       </c>
       <c r="M25">
-        <v>1.021994634898115</v>
+        <v>1.045389637757078</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028368881697471</v>
+        <v>0.9943448194516363</v>
       </c>
       <c r="D2">
-        <v>1.03675252746226</v>
+        <v>1.016056106986201</v>
       </c>
       <c r="E2">
-        <v>1.028335307673828</v>
+        <v>1.001508959218015</v>
       </c>
       <c r="F2">
-        <v>1.043700748209906</v>
+        <v>1.01570422096817</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032044799016489</v>
+        <v>1.041288903564846</v>
       </c>
       <c r="J2">
-        <v>1.033521584377905</v>
+        <v>1.016696001764907</v>
       </c>
       <c r="K2">
-        <v>1.039545370101956</v>
+        <v>1.027296196425447</v>
       </c>
       <c r="L2">
-        <v>1.031152423627581</v>
+        <v>1.012947311796355</v>
       </c>
       <c r="M2">
-        <v>1.046473873974521</v>
+        <v>1.026949022047416</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029373999598164</v>
+        <v>0.9990819001649957</v>
       </c>
       <c r="D3">
-        <v>1.03753676966259</v>
+        <v>1.019660274568995</v>
       </c>
       <c r="E3">
-        <v>1.029190568526886</v>
+        <v>1.005303487557237</v>
       </c>
       <c r="F3">
-        <v>1.044677412616198</v>
+        <v>1.020056103891782</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032202851175256</v>
+        <v>1.042345381401965</v>
       </c>
       <c r="J3">
-        <v>1.034166996776917</v>
+        <v>1.019597624836913</v>
       </c>
       <c r="K3">
-        <v>1.040139346069516</v>
+        <v>1.030047629812032</v>
       </c>
       <c r="L3">
-        <v>1.031815470601121</v>
+        <v>1.015868956055523</v>
       </c>
       <c r="M3">
-        <v>1.047261194033815</v>
+        <v>1.030438636674193</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030024806538999</v>
+        <v>1.002083699900214</v>
       </c>
       <c r="D4">
-        <v>1.038044376230692</v>
+        <v>1.021946194863558</v>
       </c>
       <c r="E4">
-        <v>1.029744717826859</v>
+        <v>1.007714294320009</v>
       </c>
       <c r="F4">
-        <v>1.045310023185288</v>
+        <v>1.022818817628981</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032303792312888</v>
+        <v>1.043003852525143</v>
       </c>
       <c r="J4">
-        <v>1.034584474642876</v>
+        <v>1.021434254192127</v>
       </c>
       <c r="K4">
-        <v>1.040523181880792</v>
+        <v>1.031786771996732</v>
       </c>
       <c r="L4">
-        <v>1.032244605102927</v>
+        <v>1.017720497752738</v>
       </c>
       <c r="M4">
-        <v>1.047770669563353</v>
+        <v>1.032649424518116</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030298507799209</v>
+        <v>1.003331038928064</v>
       </c>
       <c r="D5">
-        <v>1.038257808648253</v>
+        <v>1.022896486814989</v>
       </c>
       <c r="E5">
-        <v>1.0299778578884</v>
+        <v>1.008717515826199</v>
       </c>
       <c r="F5">
-        <v>1.045576125624679</v>
+        <v>1.023967959773077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032345909297254</v>
+        <v>1.043274782769772</v>
       </c>
       <c r="J5">
-        <v>1.034759946366276</v>
+        <v>1.022196892377641</v>
       </c>
       <c r="K5">
-        <v>1.040684424358479</v>
+        <v>1.032508332063124</v>
       </c>
       <c r="L5">
-        <v>1.032425036076759</v>
+        <v>1.018489864253304</v>
       </c>
       <c r="M5">
-        <v>1.0479848585313</v>
+        <v>1.033567898370289</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030344469411927</v>
+        <v>1.003539631271529</v>
       </c>
       <c r="D6">
-        <v>1.03829364688662</v>
+        <v>1.023055427048878</v>
       </c>
       <c r="E6">
-        <v>1.030017013402576</v>
+        <v>1.00888536872521</v>
       </c>
       <c r="F6">
-        <v>1.04562081433344</v>
+        <v>1.024160196871171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032352962223883</v>
+        <v>1.043319931286195</v>
       </c>
       <c r="J6">
-        <v>1.03478940670953</v>
+        <v>1.022324395568252</v>
       </c>
       <c r="K6">
-        <v>1.040711490494733</v>
+        <v>1.032628931906488</v>
       </c>
       <c r="L6">
-        <v>1.032455332546184</v>
+        <v>1.018618523821617</v>
       </c>
       <c r="M6">
-        <v>1.048020822093474</v>
+        <v>1.033721482829725</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030028463348434</v>
+        <v>1.002100423618711</v>
       </c>
       <c r="D7">
-        <v>1.038047227990538</v>
+        <v>1.021958934331339</v>
       </c>
       <c r="E7">
-        <v>1.029747832366743</v>
+        <v>1.007727739333281</v>
       </c>
       <c r="F7">
-        <v>1.045313578259438</v>
+        <v>1.022834220290892</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032304356334826</v>
+        <v>1.043007495691256</v>
       </c>
       <c r="J7">
-        <v>1.034586819446919</v>
+        <v>1.021444481448951</v>
       </c>
       <c r="K7">
-        <v>1.040525336891529</v>
+        <v>1.031796450764773</v>
       </c>
       <c r="L7">
-        <v>1.032247015941753</v>
+        <v>1.01773081312143</v>
       </c>
       <c r="M7">
-        <v>1.047773531546597</v>
+        <v>1.03266173973259</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028708476953156</v>
+        <v>0.9959592152486733</v>
       </c>
       <c r="D8">
-        <v>1.037017534151437</v>
+        <v>1.01728394161657</v>
       </c>
       <c r="E8">
-        <v>1.028624193565721</v>
+        <v>1.002800784010142</v>
       </c>
       <c r="F8">
-        <v>1.044030682654666</v>
+        <v>1.017186259686275</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032098488420482</v>
+        <v>1.041651229818202</v>
       </c>
       <c r="J8">
-        <v>1.033739734528175</v>
+        <v>1.017685284946948</v>
       </c>
       <c r="K8">
-        <v>1.039746211379948</v>
+        <v>1.02823477193097</v>
       </c>
       <c r="L8">
-        <v>1.031376482513349</v>
+        <v>1.013942950085414</v>
       </c>
       <c r="M8">
-        <v>1.046739946345816</v>
+        <v>1.028138357619435</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026385797786912</v>
+        <v>0.9846251497546673</v>
       </c>
       <c r="D9">
-        <v>1.035204277350282</v>
+        <v>1.008675126466537</v>
       </c>
       <c r="E9">
-        <v>1.026649900085692</v>
+        <v>0.9937602346073413</v>
       </c>
       <c r="F9">
-        <v>1.041775031529055</v>
+        <v>1.0068048942786</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031725563301649</v>
+        <v>1.039062668397237</v>
       </c>
       <c r="J9">
-        <v>1.032245969044678</v>
+        <v>1.010732765235567</v>
       </c>
       <c r="K9">
-        <v>1.038369453064372</v>
+        <v>1.021629006492412</v>
       </c>
       <c r="L9">
-        <v>1.029843283843142</v>
+        <v>1.00695536544107</v>
       </c>
       <c r="M9">
-        <v>1.044918884786762</v>
+        <v>1.019788523252091</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024839597962745</v>
+        <v>0.976684435341107</v>
       </c>
       <c r="D10">
-        <v>1.033996310673444</v>
+        <v>1.002661375331819</v>
       </c>
       <c r="E10">
-        <v>1.025337599971993</v>
+        <v>0.9874656508453552</v>
       </c>
       <c r="F10">
-        <v>1.040274671176939</v>
+        <v>0.9995641088690967</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031470142858968</v>
+        <v>1.037194281728893</v>
       </c>
       <c r="J10">
-        <v>1.03124943357833</v>
+        <v>1.005854654365167</v>
       </c>
       <c r="K10">
-        <v>1.037449083502132</v>
+        <v>1.016982743511377</v>
       </c>
       <c r="L10">
-        <v>1.028821731659436</v>
+        <v>1.002064965763314</v>
       </c>
       <c r="M10">
-        <v>1.04370506605795</v>
+        <v>1.013941237927381</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024170616518219</v>
+        <v>0.9731450051533941</v>
       </c>
       <c r="D11">
-        <v>1.033473468291537</v>
+        <v>0.9999861339874467</v>
       </c>
       <c r="E11">
-        <v>1.024770296240014</v>
+        <v>0.9846701613896337</v>
       </c>
       <c r="F11">
-        <v>1.039625819357558</v>
+        <v>0.996345265536513</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031357934775588</v>
+        <v>1.036349187649921</v>
       </c>
       <c r="J11">
-        <v>1.030817767428594</v>
+        <v>1.003679289049836</v>
       </c>
       <c r="K11">
-        <v>1.037049963460744</v>
+        <v>1.014908311805853</v>
       </c>
       <c r="L11">
-        <v>1.02837953558615</v>
+        <v>0.999887084599055</v>
       </c>
       <c r="M11">
-        <v>1.043179533237487</v>
+        <v>1.011336435491036</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023922207527438</v>
+        <v>0.9718142171509496</v>
       </c>
       <c r="D12">
-        <v>1.033279294753137</v>
+        <v>0.9989811637518291</v>
       </c>
       <c r="E12">
-        <v>1.024559715216829</v>
+        <v>0.9836207012540698</v>
       </c>
       <c r="F12">
-        <v>1.039384930180452</v>
+        <v>0.9951363899664498</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031316014321759</v>
+        <v>1.03602965758019</v>
       </c>
       <c r="J12">
-        <v>1.030657404064482</v>
+        <v>1.002861278360075</v>
       </c>
       <c r="K12">
-        <v>1.036901624060662</v>
+        <v>1.014127909121312</v>
       </c>
       <c r="L12">
-        <v>1.028215306461055</v>
+        <v>0.9990685774613666</v>
       </c>
       <c r="M12">
-        <v>1.04298433663011</v>
+        <v>1.010357366049345</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023975488449999</v>
+        <v>0.9721004188973302</v>
       </c>
       <c r="D13">
-        <v>1.033320944107484</v>
+        <v>0.999197252581565</v>
       </c>
       <c r="E13">
-        <v>1.024604879171865</v>
+        <v>0.9838463258426093</v>
       </c>
       <c r="F13">
-        <v>1.039436596132488</v>
+        <v>0.9953963094964097</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031325017317561</v>
+        <v>1.036098455847292</v>
       </c>
       <c r="J13">
-        <v>1.03069180359586</v>
+        <v>1.003037204642818</v>
       </c>
       <c r="K13">
-        <v>1.036933447355234</v>
+        <v>1.014295762475822</v>
       </c>
       <c r="L13">
-        <v>1.028250533150109</v>
+        <v>0.9992445901282306</v>
       </c>
       <c r="M13">
-        <v>1.043026206513031</v>
+        <v>1.010567911274249</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024150081309047</v>
+        <v>0.973035335424293</v>
       </c>
       <c r="D14">
-        <v>1.033457417158671</v>
+        <v>0.9999032960603635</v>
       </c>
       <c r="E14">
-        <v>1.024752886668094</v>
+        <v>0.9845836424999069</v>
       </c>
       <c r="F14">
-        <v>1.039605904862583</v>
+        <v>0.9962456141256179</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031354474539408</v>
+        <v>1.036322891173044</v>
       </c>
       <c r="J14">
-        <v>1.030804512215123</v>
+        <v>1.003611878713179</v>
       </c>
       <c r="K14">
-        <v>1.037037703479368</v>
+        <v>1.014844007561916</v>
       </c>
       <c r="L14">
-        <v>1.028365959898601</v>
+        <v>0.9998196241884793</v>
       </c>
       <c r="M14">
-        <v>1.043163398022536</v>
+        <v>1.011255744006364</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024257664410968</v>
+        <v>0.9736092085876352</v>
       </c>
       <c r="D15">
-        <v>1.033541507167938</v>
+        <v>1.000336802335409</v>
       </c>
       <c r="E15">
-        <v>1.024844097663895</v>
+        <v>0.9850364396123162</v>
       </c>
       <c r="F15">
-        <v>1.039710237923685</v>
+        <v>0.9967671205807326</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031372592133688</v>
+        <v>1.036460421489075</v>
       </c>
       <c r="J15">
-        <v>1.030873952642787</v>
+        <v>1.003964615894067</v>
       </c>
       <c r="K15">
-        <v>1.037101927421978</v>
+        <v>1.015180477552602</v>
       </c>
       <c r="L15">
-        <v>1.02843708108973</v>
+        <v>1.000172641738681</v>
       </c>
       <c r="M15">
-        <v>1.043247927548153</v>
+        <v>1.011677994615366</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024884007326327</v>
+        <v>0.9769171310024215</v>
       </c>
       <c r="D16">
-        <v>1.034031014625463</v>
+        <v>1.002837374085226</v>
       </c>
       <c r="E16">
-        <v>1.025375269749178</v>
+        <v>0.9876496562720487</v>
       </c>
       <c r="F16">
-        <v>1.040317750570225</v>
+        <v>0.9997759139813556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031477555867852</v>
+        <v>1.037249590688421</v>
       </c>
       <c r="J16">
-        <v>1.031278078530242</v>
+        <v>1.005997654540604</v>
       </c>
       <c r="K16">
-        <v>1.037475559338267</v>
+        <v>1.017119059425827</v>
       </c>
       <c r="L16">
-        <v>1.028851081827209</v>
+        <v>1.002208193393462</v>
       </c>
       <c r="M16">
-        <v>1.043739945250767</v>
+        <v>1.014112525903713</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025277038734184</v>
+        <v>0.9789644320447767</v>
       </c>
       <c r="D17">
-        <v>1.034338128085611</v>
+        <v>1.004386457002834</v>
       </c>
       <c r="E17">
-        <v>1.025708709884793</v>
+        <v>0.9892697419195344</v>
       </c>
       <c r="F17">
-        <v>1.040699045846996</v>
+        <v>1.001640404555914</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031542966266989</v>
+        <v>1.037734818263111</v>
       </c>
       <c r="J17">
-        <v>1.031531533727101</v>
+        <v>1.007255686586636</v>
       </c>
       <c r="K17">
-        <v>1.037709770307701</v>
+        <v>1.018318010394237</v>
       </c>
       <c r="L17">
-        <v>1.029110812293813</v>
+        <v>1.003468564084933</v>
       </c>
       <c r="M17">
-        <v>1.044048591280733</v>
+        <v>1.015619732542674</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025506338732818</v>
+        <v>0.9801489029700017</v>
       </c>
       <c r="D18">
-        <v>1.034517282858681</v>
+        <v>1.005283176543565</v>
       </c>
       <c r="E18">
-        <v>1.025903289624391</v>
+        <v>0.9902080088063312</v>
       </c>
       <c r="F18">
-        <v>1.040921527416166</v>
+        <v>1.002719920495002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031580963739994</v>
+        <v>1.038014377672229</v>
       </c>
       <c r="J18">
-        <v>1.031679354400668</v>
+        <v>1.007983421823166</v>
       </c>
       <c r="K18">
-        <v>1.037846324243439</v>
+        <v>1.019011334393383</v>
       </c>
       <c r="L18">
-        <v>1.029262322405849</v>
+        <v>1.004197932885126</v>
       </c>
       <c r="M18">
-        <v>1.044228624893824</v>
+        <v>1.016491869152313</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02558453281817</v>
+        <v>0.9805511605566546</v>
       </c>
       <c r="D19">
-        <v>1.034578373482767</v>
+        <v>1.005587791948159</v>
       </c>
       <c r="E19">
-        <v>1.025969651480272</v>
+        <v>0.9905268140951791</v>
       </c>
       <c r="F19">
-        <v>1.040997401164867</v>
+        <v>1.003086669474719</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031593893541256</v>
+        <v>1.038109118370391</v>
       </c>
       <c r="J19">
-        <v>1.031729754788909</v>
+        <v>1.0082305485795</v>
       </c>
       <c r="K19">
-        <v>1.03789287585341</v>
+        <v>1.01924673521935</v>
       </c>
       <c r="L19">
-        <v>1.029313985744307</v>
+        <v>1.004445661871967</v>
       </c>
       <c r="M19">
-        <v>1.044290012628003</v>
+        <v>1.016788076227576</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025234864861444</v>
+        <v>0.9787457841201899</v>
       </c>
       <c r="D20">
-        <v>1.034305175570186</v>
+        <v>1.004220965909671</v>
       </c>
       <c r="E20">
-        <v>1.02567292562346</v>
+        <v>0.9890966193788967</v>
       </c>
       <c r="F20">
-        <v>1.040658128347206</v>
+        <v>1.001441195786575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031535964411264</v>
+        <v>1.037683117839386</v>
       </c>
       <c r="J20">
-        <v>1.031504341976894</v>
+        <v>1.007121341311636</v>
       </c>
       <c r="K20">
-        <v>1.037684647614534</v>
+        <v>1.018189998567032</v>
       </c>
       <c r="L20">
-        <v>1.029082944247792</v>
+        <v>1.003333939907622</v>
       </c>
       <c r="M20">
-        <v>1.044015475896613</v>
+        <v>1.015458750753684</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024098665838249</v>
+        <v>0.9727604774705078</v>
       </c>
       <c r="D21">
-        <v>1.033417228315903</v>
+        <v>0.9996956995813631</v>
       </c>
       <c r="E21">
-        <v>1.024709298253575</v>
+        <v>0.9843668322362028</v>
       </c>
       <c r="F21">
-        <v>1.039556044250607</v>
+        <v>0.9959958868555779</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031345806781623</v>
+        <v>1.036256957551674</v>
       </c>
       <c r="J21">
-        <v>1.030771322974829</v>
+        <v>1.003442931317809</v>
       </c>
       <c r="K21">
-        <v>1.037007005084535</v>
+        <v>1.01468283932185</v>
       </c>
       <c r="L21">
-        <v>1.028331968979763</v>
+        <v>0.9996505585519092</v>
       </c>
       <c r="M21">
-        <v>1.043122998268206</v>
+        <v>1.011053517550539</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023384758382939</v>
+        <v>0.9689037098548947</v>
       </c>
       <c r="D22">
-        <v>1.032859134419643</v>
+        <v>0.996784992281846</v>
       </c>
       <c r="E22">
-        <v>1.024104242838181</v>
+        <v>0.9813285351777443</v>
       </c>
       <c r="F22">
-        <v>1.038863833970388</v>
+        <v>0.9924951363388687</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031224850811751</v>
+        <v>1.03532761950164</v>
       </c>
       <c r="J22">
-        <v>1.030310310146396</v>
+        <v>1.001072133871213</v>
       </c>
       <c r="K22">
-        <v>1.036580433000308</v>
+        <v>1.01242040928751</v>
       </c>
       <c r="L22">
-        <v>1.027859929745268</v>
+        <v>0.9972791791856226</v>
       </c>
       <c r="M22">
-        <v>1.042561918603053</v>
+        <v>1.008216746645152</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02376316993465</v>
+        <v>0.9709574447300156</v>
       </c>
       <c r="D23">
-        <v>1.033154971825677</v>
+        <v>0.9983344196893125</v>
       </c>
       <c r="E23">
-        <v>1.024424916545274</v>
+        <v>0.9829455153558387</v>
       </c>
       <c r="F23">
-        <v>1.03923071975992</v>
+        <v>0.9943585040117452</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031289104077685</v>
+        <v>1.035823447003028</v>
       </c>
       <c r="J23">
-        <v>1.030554714315767</v>
+        <v>1.002334616697612</v>
       </c>
       <c r="K23">
-        <v>1.036806615138075</v>
+        <v>1.013625366015148</v>
       </c>
       <c r="L23">
-        <v>1.02811015422714</v>
+        <v>0.9985417234350775</v>
       </c>
       <c r="M23">
-        <v>1.042859351911091</v>
+        <v>1.00972713031794</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02525392126022</v>
+        <v>0.97884461156946</v>
       </c>
       <c r="D24">
-        <v>1.034320065329635</v>
+        <v>1.004295765290455</v>
       </c>
       <c r="E24">
-        <v>1.025689094713596</v>
+        <v>0.9891748666703412</v>
       </c>
       <c r="F24">
-        <v>1.040676616961625</v>
+        <v>1.001531234356329</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031539128728367</v>
+        <v>1.03770648973023</v>
       </c>
       <c r="J24">
-        <v>1.031516628806128</v>
+        <v>1.007182064829371</v>
       </c>
       <c r="K24">
-        <v>1.037695999655453</v>
+        <v>1.018247860121176</v>
       </c>
       <c r="L24">
-        <v>1.029095536575849</v>
+        <v>1.00339478861783</v>
       </c>
       <c r="M24">
-        <v>1.044030439295977</v>
+        <v>1.015531513058497</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026985871177856</v>
+        <v>0.9876199691556816</v>
       </c>
       <c r="D25">
-        <v>1.035672899085462</v>
+        <v>1.010947154774796</v>
       </c>
       <c r="E25">
-        <v>1.027159620203239</v>
+        <v>0.9961425479601288</v>
       </c>
       <c r="F25">
-        <v>1.042357575457506</v>
+        <v>1.009542672267825</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031823174562657</v>
+        <v>1.039756315192291</v>
       </c>
       <c r="J25">
-        <v>1.032632268350838</v>
+        <v>1.01257127641383</v>
       </c>
       <c r="K25">
-        <v>1.038725827864696</v>
+        <v>1.023377874341758</v>
       </c>
       <c r="L25">
-        <v>1.030239553651163</v>
+        <v>1.008801042511184</v>
       </c>
       <c r="M25">
-        <v>1.045389637757078</v>
+        <v>1.021994634898115</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9943448194516363</v>
+        <v>1.016387606066535</v>
       </c>
       <c r="D2">
-        <v>1.016056106986201</v>
+        <v>1.031545117741983</v>
       </c>
       <c r="E2">
-        <v>1.001508959218015</v>
+        <v>1.029559626317551</v>
       </c>
       <c r="F2">
-        <v>1.01570422096817</v>
+        <v>1.038091286208065</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041288903564846</v>
+        <v>1.049648436704401</v>
       </c>
       <c r="J2">
-        <v>1.016696001764907</v>
+        <v>1.038088975663093</v>
       </c>
       <c r="K2">
-        <v>1.027296196425447</v>
+        <v>1.042581799095299</v>
       </c>
       <c r="L2">
-        <v>1.012947311796355</v>
+        <v>1.04062195393564</v>
       </c>
       <c r="M2">
-        <v>1.026949022047416</v>
+        <v>1.049044279557966</v>
       </c>
       <c r="N2">
         <v>1.005712725503999</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047387615634384</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041179302884776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9990819001649957</v>
+        <v>1.019770665592601</v>
       </c>
       <c r="D3">
-        <v>1.019660274568995</v>
+        <v>1.033741875139777</v>
       </c>
       <c r="E3">
-        <v>1.005303487557237</v>
+        <v>1.032188261998471</v>
       </c>
       <c r="F3">
-        <v>1.020056103891782</v>
+        <v>1.040665862739456</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042345381401965</v>
+        <v>1.050405332221353</v>
       </c>
       <c r="J3">
-        <v>1.019597624836913</v>
+        <v>1.039736497804257</v>
       </c>
       <c r="K3">
-        <v>1.030047629812032</v>
+        <v>1.043960484813923</v>
       </c>
       <c r="L3">
-        <v>1.015868956055523</v>
+        <v>1.042425209320099</v>
       </c>
       <c r="M3">
-        <v>1.030438636674193</v>
+        <v>1.050803569953715</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048779961576721</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04215149002529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002083699900214</v>
+        <v>1.021925102036235</v>
       </c>
       <c r="D4">
-        <v>1.021946194863558</v>
+        <v>1.035144869021658</v>
       </c>
       <c r="E4">
-        <v>1.007714294320009</v>
+        <v>1.033867996601859</v>
       </c>
       <c r="F4">
-        <v>1.022818817628981</v>
+        <v>1.042312192395829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043003852525143</v>
+        <v>1.050880398716768</v>
       </c>
       <c r="J4">
-        <v>1.021434254192127</v>
+        <v>1.040784116645768</v>
       </c>
       <c r="K4">
-        <v>1.031786771996732</v>
+        <v>1.044836852173642</v>
       </c>
       <c r="L4">
-        <v>1.017720497752738</v>
+        <v>1.043574151170157</v>
       </c>
       <c r="M4">
-        <v>1.032649424518116</v>
+        <v>1.051925419855779</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049667819979089</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04277204419332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003331038928064</v>
+        <v>1.022825602068919</v>
       </c>
       <c r="D5">
-        <v>1.022896486814989</v>
+        <v>1.035734363228806</v>
       </c>
       <c r="E5">
-        <v>1.008717515826199</v>
+        <v>1.034571622177186</v>
       </c>
       <c r="F5">
-        <v>1.023967959773077</v>
+        <v>1.043001658443675</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043274782769772</v>
+        <v>1.05107869487155</v>
       </c>
       <c r="J5">
-        <v>1.022196892377641</v>
+        <v>1.041222991708076</v>
       </c>
       <c r="K5">
-        <v>1.032508332063124</v>
+        <v>1.045205536364403</v>
       </c>
       <c r="L5">
-        <v>1.018489864253304</v>
+        <v>1.044055359789294</v>
       </c>
       <c r="M5">
-        <v>1.033567898370289</v>
+        <v>1.052395078697937</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050039518720466</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043039873926973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003539631271529</v>
+        <v>1.022979798522624</v>
       </c>
       <c r="D6">
-        <v>1.023055427048878</v>
+        <v>1.035837956354112</v>
       </c>
       <c r="E6">
-        <v>1.00888536872521</v>
+        <v>1.034692413106317</v>
       </c>
       <c r="F6">
-        <v>1.024160196871171</v>
+        <v>1.043119503129588</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043319931286195</v>
+        <v>1.051114284022152</v>
       </c>
       <c r="J6">
-        <v>1.022324395568252</v>
+        <v>1.041299815071422</v>
       </c>
       <c r="K6">
-        <v>1.032628931906488</v>
+        <v>1.045272038544387</v>
       </c>
       <c r="L6">
-        <v>1.018618523821617</v>
+        <v>1.044138817783543</v>
       </c>
       <c r="M6">
-        <v>1.033721482829725</v>
+        <v>1.052476032604765</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050103587473755</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043095604819417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002100423618711</v>
+        <v>1.021946484350586</v>
       </c>
       <c r="D7">
-        <v>1.021958934331339</v>
+        <v>1.035165811112348</v>
       </c>
       <c r="E7">
-        <v>1.007727739333281</v>
+        <v>1.033885315444373</v>
       </c>
       <c r="F7">
-        <v>1.022834220290892</v>
+        <v>1.042327731171325</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043007495691256</v>
+        <v>1.050889767663344</v>
       </c>
       <c r="J7">
-        <v>1.021444481448951</v>
+        <v>1.040799091382574</v>
       </c>
       <c r="K7">
-        <v>1.031796450764773</v>
+        <v>1.04485469679832</v>
       </c>
       <c r="L7">
-        <v>1.01773081312143</v>
+        <v>1.043588407380362</v>
       </c>
       <c r="M7">
-        <v>1.03266173973259</v>
+        <v>1.051937950113173</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049677736713566</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042804691846187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9959592152486733</v>
+        <v>1.017549867354412</v>
       </c>
       <c r="D8">
-        <v>1.01728394161657</v>
+        <v>1.032307553796242</v>
       </c>
       <c r="E8">
-        <v>1.002800784010142</v>
+        <v>1.030462323534617</v>
       </c>
       <c r="F8">
-        <v>1.017186259686275</v>
+        <v>1.038973386958191</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041651229818202</v>
+        <v>1.049915644008473</v>
       </c>
       <c r="J8">
-        <v>1.017685284946948</v>
+        <v>1.038660950845576</v>
       </c>
       <c r="K8">
-        <v>1.02823477193097</v>
+        <v>1.043066983754261</v>
       </c>
       <c r="L8">
-        <v>1.013942950085414</v>
+        <v>1.041244886667564</v>
       </c>
       <c r="M8">
-        <v>1.028138357619435</v>
+        <v>1.049650101040828</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04786707803879</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041545187226441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9846251497546673</v>
+        <v>1.009512079820487</v>
       </c>
       <c r="D9">
-        <v>1.008675126466537</v>
+        <v>1.027104376715132</v>
       </c>
       <c r="E9">
-        <v>0.9937602346073413</v>
+        <v>1.024250076539467</v>
       </c>
       <c r="F9">
-        <v>1.0068048942786</v>
+        <v>1.032897140572158</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039062668397237</v>
+        <v>1.048073721585344</v>
       </c>
       <c r="J9">
-        <v>1.010732765235567</v>
+        <v>1.034733356300512</v>
       </c>
       <c r="K9">
-        <v>1.021629006492412</v>
+        <v>1.039772494450802</v>
       </c>
       <c r="L9">
-        <v>1.00695536544107</v>
+        <v>1.036961594528561</v>
       </c>
       <c r="M9">
-        <v>1.019788523252091</v>
+        <v>1.04547811614808</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044565257626562</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039212620025731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.976684435341107</v>
+        <v>1.004012433973389</v>
       </c>
       <c r="D10">
-        <v>1.002661375331819</v>
+        <v>1.023578094541823</v>
       </c>
       <c r="E10">
-        <v>0.9874656508453552</v>
+        <v>1.020066850281127</v>
       </c>
       <c r="F10">
-        <v>0.9995641088690967</v>
+        <v>1.028858647352973</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037194281728893</v>
+        <v>1.04679974299047</v>
       </c>
       <c r="J10">
-        <v>1.005854654365167</v>
+        <v>1.032067755924829</v>
       </c>
       <c r="K10">
-        <v>1.016982743511377</v>
+        <v>1.037534300509329</v>
       </c>
       <c r="L10">
-        <v>1.002064965763314</v>
+        <v>1.034083003420503</v>
       </c>
       <c r="M10">
-        <v>1.013941237927381</v>
+        <v>1.042725692050748</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042438099854437</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037646847447175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9731450051533941</v>
+        <v>1.002046200995357</v>
       </c>
       <c r="D11">
-        <v>0.9999861339874467</v>
+        <v>1.022390537329811</v>
       </c>
       <c r="E11">
-        <v>0.9846701613896337</v>
+        <v>1.01885221544936</v>
       </c>
       <c r="F11">
-        <v>0.996345265536513</v>
+        <v>1.028065365269974</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036349187649921</v>
+        <v>1.046496887205885</v>
       </c>
       <c r="J11">
-        <v>1.003679289049836</v>
+        <v>1.031334102674125</v>
       </c>
       <c r="K11">
-        <v>1.014908311805853</v>
+        <v>1.036902203250458</v>
       </c>
       <c r="L11">
-        <v>0.999887084599055</v>
+        <v>1.033427153622238</v>
       </c>
       <c r="M11">
-        <v>1.011336435491036</v>
+        <v>1.042476732384418</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042675182426594</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037232675253452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9718142171509496</v>
+        <v>1.001478182085942</v>
       </c>
       <c r="D12">
-        <v>0.9989811637518291</v>
+        <v>1.022073313168448</v>
       </c>
       <c r="E12">
-        <v>0.9836207012540698</v>
+        <v>1.01862442748353</v>
       </c>
       <c r="F12">
-        <v>0.9951363899664498</v>
+        <v>1.028124207853933</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03602965758019</v>
+        <v>1.046478379267298</v>
       </c>
       <c r="J12">
-        <v>1.002861278360075</v>
+        <v>1.031220114075853</v>
       </c>
       <c r="K12">
-        <v>1.014127909121312</v>
+        <v>1.036789499233931</v>
       </c>
       <c r="L12">
-        <v>0.9990685774613666</v>
+        <v>1.033403304743673</v>
       </c>
       <c r="M12">
-        <v>1.010357366049345</v>
+        <v>1.042731724672665</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043201776688273</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037152990322189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9721004188973302</v>
+        <v>1.001959778682859</v>
       </c>
       <c r="D13">
-        <v>0.999197252581565</v>
+        <v>1.022419185051864</v>
       </c>
       <c r="E13">
-        <v>0.9838463258426093</v>
+        <v>1.019152167230955</v>
       </c>
       <c r="F13">
-        <v>0.9953963094964097</v>
+        <v>1.028862178062638</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036098455847292</v>
+        <v>1.046689534824094</v>
       </c>
       <c r="J13">
-        <v>1.003037204642818</v>
+        <v>1.031589109564721</v>
       </c>
       <c r="K13">
-        <v>1.014295762475822</v>
+        <v>1.037086478487241</v>
       </c>
       <c r="L13">
-        <v>0.9992445901282306</v>
+        <v>1.033878581713743</v>
       </c>
       <c r="M13">
-        <v>1.010567911274249</v>
+        <v>1.04341430452248</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044016990293385</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037360478176504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.973035335424293</v>
+        <v>1.002772765491076</v>
       </c>
       <c r="D14">
-        <v>0.9999032960603635</v>
+        <v>1.022963278964808</v>
       </c>
       <c r="E14">
-        <v>0.9845836424999069</v>
+        <v>1.01986282633808</v>
       </c>
       <c r="F14">
-        <v>0.9962456141256179</v>
+        <v>1.029684976966619</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036322891173044</v>
+        <v>1.046941487481674</v>
       </c>
       <c r="J14">
-        <v>1.003611878713179</v>
+        <v>1.032066137291184</v>
       </c>
       <c r="K14">
-        <v>1.014844007561916</v>
+        <v>1.037481175300599</v>
       </c>
       <c r="L14">
-        <v>0.9998196241884793</v>
+        <v>1.034436125536754</v>
       </c>
       <c r="M14">
-        <v>1.011255744006364</v>
+        <v>1.044084245611133</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044719233229711</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037640960255527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9736092085876352</v>
+        <v>1.00320440543323</v>
       </c>
       <c r="D15">
-        <v>1.000336802335409</v>
+        <v>1.023246414103778</v>
       </c>
       <c r="E15">
-        <v>0.9850364396123162</v>
+        <v>1.020209383639612</v>
       </c>
       <c r="F15">
-        <v>0.9967671205807326</v>
+        <v>1.030048943236571</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036460421489075</v>
+        <v>1.047057169211956</v>
       </c>
       <c r="J15">
-        <v>1.003964615894067</v>
+        <v>1.032294196349759</v>
       </c>
       <c r="K15">
-        <v>1.015180477552602</v>
+        <v>1.037673291103601</v>
       </c>
       <c r="L15">
-        <v>1.000172641738681</v>
+        <v>1.034690116865607</v>
       </c>
       <c r="M15">
-        <v>1.011677994615366</v>
+        <v>1.044356681152276</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044971971294397</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037782643727243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9769171310024215</v>
+        <v>1.005436439705334</v>
       </c>
       <c r="D16">
-        <v>1.002837374085226</v>
+        <v>1.024670579255032</v>
       </c>
       <c r="E16">
-        <v>0.9876496562720487</v>
+        <v>1.021880740935467</v>
       </c>
       <c r="F16">
-        <v>0.9997759139813556</v>
+        <v>1.03164591116545</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037249590688421</v>
+        <v>1.047568729821081</v>
       </c>
       <c r="J16">
-        <v>1.005997654540604</v>
+        <v>1.0333599115868</v>
       </c>
       <c r="K16">
-        <v>1.017119059425827</v>
+        <v>1.038572828268641</v>
       </c>
       <c r="L16">
-        <v>1.002208193393462</v>
+        <v>1.035830307419655</v>
       </c>
       <c r="M16">
-        <v>1.014112525903713</v>
+        <v>1.045431296052713</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045782770886438</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038421802411699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9789644320447767</v>
+        <v>1.006725453909159</v>
       </c>
       <c r="D17">
-        <v>1.004386457002834</v>
+        <v>1.025480859213425</v>
       </c>
       <c r="E17">
-        <v>0.9892697419195344</v>
+        <v>1.022792518683138</v>
       </c>
       <c r="F17">
-        <v>1.001640404555914</v>
+        <v>1.032436372438268</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037734818263111</v>
+        <v>1.047827592833541</v>
       </c>
       <c r="J17">
-        <v>1.007255686586636</v>
+        <v>1.033927613807373</v>
       </c>
       <c r="K17">
-        <v>1.018318010394237</v>
+        <v>1.039056395321595</v>
       </c>
       <c r="L17">
-        <v>1.003468564084933</v>
+        <v>1.036412375864735</v>
       </c>
       <c r="M17">
-        <v>1.015619732542674</v>
+        <v>1.045898612017701</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046023613686254</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038766280903074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9801489029700017</v>
+        <v>1.007310088275503</v>
       </c>
       <c r="D18">
-        <v>1.005283176543565</v>
+        <v>1.025820981519679</v>
       </c>
       <c r="E18">
-        <v>0.9902080088063312</v>
+        <v>1.023106618638377</v>
       </c>
       <c r="F18">
-        <v>1.002719920495002</v>
+        <v>1.032555509819616</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038014377672229</v>
+        <v>1.047881710872606</v>
       </c>
       <c r="J18">
-        <v>1.007983421823166</v>
+        <v>1.034099745711242</v>
       </c>
       <c r="K18">
-        <v>1.019011334393383</v>
+        <v>1.039208414388167</v>
       </c>
       <c r="L18">
-        <v>1.004197932885126</v>
+        <v>1.036538075304519</v>
       </c>
       <c r="M18">
-        <v>1.016491869152313</v>
+        <v>1.045834997158008</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04573666637658</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038862165721664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9805511605566546</v>
+        <v>1.007268634745383</v>
       </c>
       <c r="D19">
-        <v>1.005587791948159</v>
+        <v>1.02575391569306</v>
       </c>
       <c r="E19">
-        <v>0.9905268140951791</v>
+        <v>1.022884704986719</v>
       </c>
       <c r="F19">
-        <v>1.003086669474719</v>
+        <v>1.032066113518783</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038109118370391</v>
+        <v>1.047761919124925</v>
       </c>
       <c r="J19">
-        <v>1.0082305485795</v>
+        <v>1.033926787345181</v>
       </c>
       <c r="K19">
-        <v>1.01924673521935</v>
+        <v>1.039080190659395</v>
       </c>
       <c r="L19">
-        <v>1.004445661871967</v>
+        <v>1.03625728388912</v>
       </c>
       <c r="M19">
-        <v>1.016788076227576</v>
+        <v>1.045291681456071</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044983126572904</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038777881643485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9787457841201899</v>
+        <v>1.005460825579586</v>
       </c>
       <c r="D20">
-        <v>1.004220965909671</v>
+        <v>1.024522435797601</v>
       </c>
       <c r="E20">
-        <v>0.9890966193788967</v>
+        <v>1.021169785232483</v>
       </c>
       <c r="F20">
-        <v>1.001441195786575</v>
+        <v>1.029921930261418</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037683117839386</v>
+        <v>1.047150024283678</v>
       </c>
       <c r="J20">
-        <v>1.007121341311636</v>
+        <v>1.032782852511735</v>
       </c>
       <c r="K20">
-        <v>1.018189998567032</v>
+        <v>1.038147370533736</v>
       </c>
       <c r="L20">
-        <v>1.003333939907622</v>
+        <v>1.034850330497862</v>
       </c>
       <c r="M20">
-        <v>1.015458750753684</v>
+        <v>1.043458281322071</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043007365300653</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038122252641177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9727604774705078</v>
+        <v>1.001251658604381</v>
       </c>
       <c r="D21">
-        <v>0.9996956995813631</v>
+        <v>1.02181701641437</v>
       </c>
       <c r="E21">
-        <v>0.9843668322362028</v>
+        <v>1.01792727527691</v>
       </c>
       <c r="F21">
-        <v>0.9959958868555779</v>
+        <v>1.02672047858468</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036256957551674</v>
+        <v>1.046131280181122</v>
       </c>
       <c r="J21">
-        <v>1.003442931317809</v>
+        <v>1.030697141539653</v>
       </c>
       <c r="K21">
-        <v>1.01468283932185</v>
+        <v>1.036396520744167</v>
       </c>
       <c r="L21">
-        <v>0.9996505585519092</v>
+        <v>1.032576787588504</v>
       </c>
       <c r="M21">
-        <v>1.011053517550539</v>
+        <v>1.041212710193534</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041189485878774</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03688755797103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9689037098548947</v>
+        <v>0.9985767989614709</v>
       </c>
       <c r="D22">
-        <v>0.996784992281846</v>
+        <v>1.020100542046564</v>
       </c>
       <c r="E22">
-        <v>0.9813285351777443</v>
+        <v>1.015890523219233</v>
       </c>
       <c r="F22">
-        <v>0.9924951363388687</v>
+        <v>1.024736036963618</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03532761950164</v>
+        <v>1.04548217874164</v>
       </c>
       <c r="J22">
-        <v>1.001072133871213</v>
+        <v>1.029379584971514</v>
       </c>
       <c r="K22">
-        <v>1.01242040928751</v>
+        <v>1.035284050224626</v>
       </c>
       <c r="L22">
-        <v>0.9972791791856226</v>
+        <v>1.031153624411709</v>
       </c>
       <c r="M22">
-        <v>1.008216746645152</v>
+        <v>1.03983289494139</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040097454837662</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036087527121991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9709574447300156</v>
+        <v>0.9999906038790674</v>
       </c>
       <c r="D23">
-        <v>0.9983344196893125</v>
+        <v>1.021001113663496</v>
       </c>
       <c r="E23">
-        <v>0.9829455153558387</v>
+        <v>1.016965523509317</v>
       </c>
       <c r="F23">
-        <v>0.9943585040117452</v>
+        <v>1.025784618815978</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035823447003028</v>
+        <v>1.045821851282135</v>
       </c>
       <c r="J23">
-        <v>1.002334616697612</v>
+        <v>1.030071996044368</v>
       </c>
       <c r="K23">
-        <v>1.013625366015148</v>
+        <v>1.035864254378709</v>
       </c>
       <c r="L23">
-        <v>0.9985417234350775</v>
+        <v>1.031903011629355</v>
       </c>
       <c r="M23">
-        <v>1.00972713031794</v>
+        <v>1.040560618656622</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040673399457415</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036488145399551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.97884461156946</v>
+        <v>1.005472098895025</v>
       </c>
       <c r="D24">
-        <v>1.004295765290455</v>
+        <v>1.024514142410314</v>
       </c>
       <c r="E24">
-        <v>0.9891748666703412</v>
+        <v>1.021150500220435</v>
       </c>
       <c r="F24">
-        <v>1.001531234356329</v>
+        <v>1.029867613456358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03770648973023</v>
+        <v>1.047131339908437</v>
       </c>
       <c r="J24">
-        <v>1.007182064829371</v>
+        <v>1.032761119945261</v>
       </c>
       <c r="K24">
-        <v>1.018247860121176</v>
+        <v>1.0381240171543</v>
       </c>
       <c r="L24">
-        <v>1.00339478861783</v>
+        <v>1.034816098284895</v>
       </c>
       <c r="M24">
-        <v>1.015531513058497</v>
+        <v>1.043389765078908</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042912475157329</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038078418161724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876199691556816</v>
+        <v>1.011639067537751</v>
       </c>
       <c r="D25">
-        <v>1.010947154774796</v>
+        <v>1.028487888380194</v>
       </c>
       <c r="E25">
-        <v>0.9961425479601288</v>
+        <v>1.025889475989964</v>
       </c>
       <c r="F25">
-        <v>1.009542672267825</v>
+        <v>1.034497272273241</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039756315192291</v>
+        <v>1.048574419168295</v>
       </c>
       <c r="J25">
-        <v>1.01257127641383</v>
+        <v>1.035780980686333</v>
       </c>
       <c r="K25">
-        <v>1.023377874341758</v>
+        <v>1.040659495852759</v>
       </c>
       <c r="L25">
-        <v>1.008801042511184</v>
+        <v>1.038098758192744</v>
       </c>
       <c r="M25">
-        <v>1.021994634898115</v>
+        <v>1.046582666195137</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045439429515123</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039868268640771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016387606066535</v>
+        <v>1.01549311781269</v>
       </c>
       <c r="D2">
-        <v>1.031545117741983</v>
+        <v>1.030148019170841</v>
       </c>
       <c r="E2">
-        <v>1.029559626317551</v>
+        <v>1.028846354697508</v>
       </c>
       <c r="F2">
-        <v>1.038091286208065</v>
+        <v>1.037507354804946</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049648436704401</v>
+        <v>1.049019253110535</v>
       </c>
       <c r="J2">
-        <v>1.038088975663093</v>
+        <v>1.03722010504976</v>
       </c>
       <c r="K2">
-        <v>1.042581799095299</v>
+        <v>1.041202733718668</v>
       </c>
       <c r="L2">
-        <v>1.04062195393564</v>
+        <v>1.039917925775958</v>
       </c>
       <c r="M2">
-        <v>1.049044279557966</v>
+        <v>1.04846775972049</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047387615634384</v>
+        <v>1.046931343002458</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041179302884776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040212935997106</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022984587932009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019770665592601</v>
+        <v>1.018788574207883</v>
       </c>
       <c r="D3">
-        <v>1.033741875139777</v>
+        <v>1.032210271435531</v>
       </c>
       <c r="E3">
-        <v>1.032188261998471</v>
+        <v>1.031402231754527</v>
       </c>
       <c r="F3">
-        <v>1.040665862739456</v>
+        <v>1.040023367066883</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050405332221353</v>
+        <v>1.049711518619608</v>
       </c>
       <c r="J3">
-        <v>1.039736497804257</v>
+        <v>1.038779826177341</v>
       </c>
       <c r="K3">
-        <v>1.043960484813923</v>
+        <v>1.042446958497347</v>
       </c>
       <c r="L3">
-        <v>1.042425209320099</v>
+        <v>1.041648482841481</v>
       </c>
       <c r="M3">
-        <v>1.050803569953715</v>
+        <v>1.050168525392948</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048779961576721</v>
+        <v>1.04827737190264</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04215149002529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041089773419891</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023220618678442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021925102036235</v>
+        <v>1.020887715894687</v>
       </c>
       <c r="D4">
-        <v>1.035144869021658</v>
+        <v>1.033527934410074</v>
       </c>
       <c r="E4">
-        <v>1.033867996601859</v>
+        <v>1.033036019779273</v>
       </c>
       <c r="F4">
-        <v>1.042312192395829</v>
+        <v>1.041632722979441</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050880398716768</v>
+        <v>1.050145572072319</v>
       </c>
       <c r="J4">
-        <v>1.040784116645768</v>
+        <v>1.039771794125031</v>
       </c>
       <c r="K4">
-        <v>1.044836852173642</v>
+        <v>1.043237870434849</v>
       </c>
       <c r="L4">
-        <v>1.043574151170157</v>
+        <v>1.042751431263985</v>
       </c>
       <c r="M4">
-        <v>1.051925419855779</v>
+        <v>1.051253359468677</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049667819979089</v>
+        <v>1.049135935706763</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04277204419332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041649987344758</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02336838415719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022825602068919</v>
+        <v>1.021765234504513</v>
       </c>
       <c r="D5">
-        <v>1.035734363228806</v>
+        <v>1.034081893621488</v>
       </c>
       <c r="E5">
-        <v>1.034571622177186</v>
+        <v>1.033720542482836</v>
       </c>
       <c r="F5">
-        <v>1.043001658443675</v>
+        <v>1.042306819150994</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05107869487155</v>
+        <v>1.05032677423906</v>
       </c>
       <c r="J5">
-        <v>1.041222991708076</v>
+        <v>1.040187489665121</v>
       </c>
       <c r="K5">
-        <v>1.045205536364403</v>
+        <v>1.043570933568826</v>
       </c>
       <c r="L5">
-        <v>1.044055359789294</v>
+        <v>1.043213498762666</v>
       </c>
       <c r="M5">
-        <v>1.052395078697937</v>
+        <v>1.051707616122035</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050039518720466</v>
+        <v>1.049495445063551</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043039873926973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041893342978579</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023430536096363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022979798522624</v>
+        <v>1.021915522981542</v>
       </c>
       <c r="D6">
-        <v>1.035837956354112</v>
+        <v>1.034179472431426</v>
       </c>
       <c r="E6">
-        <v>1.034692413106317</v>
+        <v>1.033838080725087</v>
       </c>
       <c r="F6">
-        <v>1.043119503129588</v>
+        <v>1.042422047704823</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051114284022152</v>
+        <v>1.050359454875933</v>
       </c>
       <c r="J6">
-        <v>1.041299815071422</v>
+        <v>1.040260370379901</v>
       </c>
       <c r="K6">
-        <v>1.045272038544387</v>
+        <v>1.043631405604137</v>
       </c>
       <c r="L6">
-        <v>1.044138817783543</v>
+        <v>1.043293697159372</v>
       </c>
       <c r="M6">
-        <v>1.052476032604765</v>
+        <v>1.051785948087635</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050103587473755</v>
+        <v>1.049557438798564</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043095604819417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04194568051151</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023442368970837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021946484350586</v>
+        <v>1.020908599522758</v>
       </c>
       <c r="D7">
-        <v>1.035165811112348</v>
+        <v>1.033548202957587</v>
       </c>
       <c r="E7">
-        <v>1.033885315444373</v>
+        <v>1.033052912339964</v>
       </c>
       <c r="F7">
-        <v>1.042327731171325</v>
+        <v>1.041647921182815</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050889767663344</v>
+        <v>1.050154573501486</v>
       </c>
       <c r="J7">
-        <v>1.040799091382574</v>
+        <v>1.039786271706278</v>
       </c>
       <c r="K7">
-        <v>1.04485469679832</v>
+        <v>1.043255042133335</v>
       </c>
       <c r="L7">
-        <v>1.043588407380362</v>
+        <v>1.042765262473034</v>
       </c>
       <c r="M7">
-        <v>1.051937950113173</v>
+        <v>1.051265550135486</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049677736713566</v>
+        <v>1.04914558368832</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042804691846187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041684161745517</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023373154332199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017549867354412</v>
+        <v>1.016625198924824</v>
       </c>
       <c r="D8">
-        <v>1.032307553796242</v>
+        <v>1.030864355562509</v>
       </c>
       <c r="E8">
-        <v>1.030462323534617</v>
+        <v>1.029723973727751</v>
       </c>
       <c r="F8">
-        <v>1.038973386958191</v>
+        <v>1.038369271298452</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049915644008473</v>
+        <v>1.049264246819675</v>
       </c>
       <c r="J8">
-        <v>1.038660950845576</v>
+        <v>1.037761890499635</v>
       </c>
       <c r="K8">
-        <v>1.043066983754261</v>
+        <v>1.041641869724601</v>
       </c>
       <c r="L8">
-        <v>1.041244886667564</v>
+        <v>1.04051582233131</v>
       </c>
       <c r="M8">
-        <v>1.049650101040828</v>
+        <v>1.049053427346838</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04786707803879</v>
+        <v>1.047394855427547</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041545187226441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040548532798407</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02307027907555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009512079820487</v>
+        <v>1.008798579849054</v>
       </c>
       <c r="D9">
-        <v>1.027104376715132</v>
+        <v>1.025982521190467</v>
       </c>
       <c r="E9">
-        <v>1.024250076539467</v>
+        <v>1.0236869125975</v>
       </c>
       <c r="F9">
-        <v>1.032897140572158</v>
+        <v>1.032434106076727</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048073721585344</v>
+        <v>1.04757669021287</v>
       </c>
       <c r="J9">
-        <v>1.034733356300512</v>
+        <v>1.034044418089991</v>
       </c>
       <c r="K9">
-        <v>1.039772494450802</v>
+        <v>1.038667660270592</v>
       </c>
       <c r="L9">
-        <v>1.036961594528561</v>
+        <v>1.036407030075024</v>
       </c>
       <c r="M9">
-        <v>1.04547811614808</v>
+        <v>1.045022001461124</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044565257626562</v>
+        <v>1.044204275365268</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039212620025731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.0384421388874</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022491588429948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004012433973389</v>
+        <v>1.003444905781062</v>
       </c>
       <c r="D10">
-        <v>1.023578094541823</v>
+        <v>1.022676130914516</v>
       </c>
       <c r="E10">
-        <v>1.020066850281127</v>
+        <v>1.019624340071674</v>
       </c>
       <c r="F10">
-        <v>1.028858647352973</v>
+        <v>1.028492966780048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04679974299047</v>
+        <v>1.046407925581177</v>
       </c>
       <c r="J10">
-        <v>1.032067755924829</v>
+        <v>1.031522508777156</v>
       </c>
       <c r="K10">
-        <v>1.037534300509329</v>
+        <v>1.036647685289405</v>
       </c>
       <c r="L10">
-        <v>1.034083003420503</v>
+        <v>1.033648086016311</v>
       </c>
       <c r="M10">
-        <v>1.042725692050748</v>
+        <v>1.042366147893143</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042438099854437</v>
+        <v>1.042153563043004</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037646847447175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037032340469833</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022091533244893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002046200995357</v>
+        <v>1.001516735007529</v>
       </c>
       <c r="D11">
-        <v>1.022390537329811</v>
+        <v>1.021550963928893</v>
       </c>
       <c r="E11">
-        <v>1.01885221544936</v>
+        <v>1.018439854283723</v>
       </c>
       <c r="F11">
-        <v>1.028065365269974</v>
+        <v>1.027724804729299</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046496887205885</v>
+        <v>1.046132321789584</v>
       </c>
       <c r="J11">
-        <v>1.031334102674125</v>
+        <v>1.030826551874135</v>
       </c>
       <c r="K11">
-        <v>1.036902203250458</v>
+        <v>1.036077591603597</v>
       </c>
       <c r="L11">
-        <v>1.033427153622238</v>
+        <v>1.033022203466963</v>
       </c>
       <c r="M11">
-        <v>1.042476732384418</v>
+        <v>1.042142150536522</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042675182426594</v>
+        <v>1.042410532281043</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037232675253452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036665231928647</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02201064276193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001478182085942</v>
+        <v>1.000952373003381</v>
       </c>
       <c r="D12">
-        <v>1.022073313168448</v>
+        <v>1.021243505721811</v>
       </c>
       <c r="E12">
-        <v>1.01862442748353</v>
+        <v>1.01821403635401</v>
       </c>
       <c r="F12">
-        <v>1.028124207853933</v>
+        <v>1.027785845859092</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046478379267298</v>
+        <v>1.046116423560608</v>
       </c>
       <c r="J12">
-        <v>1.031220114075853</v>
+        <v>1.030716481312905</v>
       </c>
       <c r="K12">
-        <v>1.036789499233931</v>
+        <v>1.03597472507278</v>
       </c>
       <c r="L12">
-        <v>1.033403304743673</v>
+        <v>1.03300041019915</v>
       </c>
       <c r="M12">
-        <v>1.042731724672665</v>
+        <v>1.042399395540865</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043201776688273</v>
+        <v>1.042938996601676</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037152990322189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036592503789201</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022014229242744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001959778682859</v>
+        <v>1.001410946102108</v>
       </c>
       <c r="D13">
-        <v>1.022419185051864</v>
+        <v>1.021558797523143</v>
       </c>
       <c r="E13">
-        <v>1.019152167230955</v>
+        <v>1.018721896319995</v>
       </c>
       <c r="F13">
-        <v>1.028862178062638</v>
+        <v>1.028508304873156</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046689534824094</v>
+        <v>1.046311154176814</v>
       </c>
       <c r="J13">
-        <v>1.031589109564721</v>
+        <v>1.031063308882606</v>
       </c>
       <c r="K13">
-        <v>1.037086478487241</v>
+        <v>1.03624161313058</v>
       </c>
       <c r="L13">
-        <v>1.033878581713743</v>
+        <v>1.033456133900118</v>
       </c>
       <c r="M13">
-        <v>1.04341430452248</v>
+        <v>1.043066708143252</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044016990293385</v>
+        <v>1.043742206571884</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037360478176504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03677846936824</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022089311490426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002772765491076</v>
+        <v>1.002195886415344</v>
       </c>
       <c r="D14">
-        <v>1.022963278964808</v>
+        <v>1.022063339382531</v>
       </c>
       <c r="E14">
-        <v>1.01986282633808</v>
+        <v>1.019408889497741</v>
       </c>
       <c r="F14">
-        <v>1.029684976966619</v>
+        <v>1.029312343560178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046941487481674</v>
+        <v>1.046543070463518</v>
       </c>
       <c r="J14">
-        <v>1.032066137291184</v>
+        <v>1.031513122354449</v>
       </c>
       <c r="K14">
-        <v>1.037481175300599</v>
+        <v>1.036597272041955</v>
       </c>
       <c r="L14">
-        <v>1.034436125536754</v>
+        <v>1.033990336969281</v>
       </c>
       <c r="M14">
-        <v>1.044084245611133</v>
+        <v>1.043718136060115</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044719233229711</v>
+        <v>1.044429853191435</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037640960255527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037031484764308</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022174625128075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00320440543323</v>
+        <v>1.002614686976978</v>
       </c>
       <c r="D15">
-        <v>1.023246414103778</v>
+        <v>1.022327752645297</v>
       </c>
       <c r="E15">
-        <v>1.020209383639612</v>
+        <v>1.019744760293761</v>
       </c>
       <c r="F15">
-        <v>1.030048943236571</v>
+        <v>1.029667761096714</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047057169211956</v>
+        <v>1.046649568374439</v>
       </c>
       <c r="J15">
-        <v>1.032294196349759</v>
+        <v>1.031728661863972</v>
       </c>
       <c r="K15">
-        <v>1.037673291103601</v>
+        <v>1.036770876652283</v>
       </c>
       <c r="L15">
-        <v>1.034690116865607</v>
+        <v>1.034233769499585</v>
       </c>
       <c r="M15">
-        <v>1.044356681152276</v>
+        <v>1.04398212112208</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044971971294397</v>
+        <v>1.044675919585323</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037782643727243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037160650898559</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02221291500764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005436439705334</v>
+        <v>1.004789200240244</v>
       </c>
       <c r="D16">
-        <v>1.024670579255032</v>
+        <v>1.023664525627921</v>
       </c>
       <c r="E16">
-        <v>1.021880740935467</v>
+        <v>1.02136898959849</v>
       </c>
       <c r="F16">
-        <v>1.03164591116545</v>
+        <v>1.03122664098627</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047568729821081</v>
+        <v>1.047119863393228</v>
       </c>
       <c r="J16">
-        <v>1.0333599115868</v>
+        <v>1.03273790283766</v>
       </c>
       <c r="K16">
-        <v>1.038572828268641</v>
+        <v>1.037583799589555</v>
       </c>
       <c r="L16">
-        <v>1.035830307419655</v>
+        <v>1.035327271952957</v>
       </c>
       <c r="M16">
-        <v>1.045431296052713</v>
+        <v>1.045018992778771</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045782770886438</v>
+        <v>1.045456877731879</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038421802411699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037738869979548</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022373443919682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006725453909159</v>
+        <v>1.006048796506395</v>
       </c>
       <c r="D17">
-        <v>1.025480859213425</v>
+        <v>1.024428492942522</v>
       </c>
       <c r="E17">
-        <v>1.022792518683138</v>
+        <v>1.02225697196257</v>
       </c>
       <c r="F17">
-        <v>1.032436372438268</v>
+        <v>1.031997676753307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047827592833541</v>
+        <v>1.04735752474288</v>
       </c>
       <c r="J17">
-        <v>1.033927613807373</v>
+        <v>1.033276496598744</v>
       </c>
       <c r="K17">
-        <v>1.039056395321595</v>
+        <v>1.038021343144259</v>
       </c>
       <c r="L17">
-        <v>1.036412375864735</v>
+        <v>1.03588569422824</v>
       </c>
       <c r="M17">
-        <v>1.045898612017701</v>
+        <v>1.045467004205924</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046023613686254</v>
+        <v>1.045682428064553</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038766280903074</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038051056105639</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022451299764573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007310088275503</v>
+        <v>1.006626066992541</v>
       </c>
       <c r="D18">
-        <v>1.025820981519679</v>
+        <v>1.024754296054673</v>
       </c>
       <c r="E18">
-        <v>1.023106618638377</v>
+        <v>1.022565694968196</v>
       </c>
       <c r="F18">
-        <v>1.032555509819616</v>
+        <v>1.032112042314537</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047881710872606</v>
+        <v>1.047406281115834</v>
       </c>
       <c r="J18">
-        <v>1.034099745711242</v>
+        <v>1.033441065653796</v>
       </c>
       <c r="K18">
-        <v>1.039208414388167</v>
+        <v>1.038158993598013</v>
       </c>
       <c r="L18">
-        <v>1.036538075304519</v>
+        <v>1.036005960669128</v>
       </c>
       <c r="M18">
-        <v>1.045834997158008</v>
+        <v>1.045398582329288</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04573666637658</v>
+        <v>1.045391609488699</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038862165721664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038135643860084</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022460266653689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007268634745383</v>
+        <v>1.006596453408282</v>
       </c>
       <c r="D19">
-        <v>1.02575391569306</v>
+        <v>1.024701202548716</v>
       </c>
       <c r="E19">
-        <v>1.022884704986719</v>
+        <v>1.022354391642885</v>
       </c>
       <c r="F19">
-        <v>1.032066113518783</v>
+        <v>1.031630602750857</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047761919124925</v>
+        <v>1.047294958662939</v>
       </c>
       <c r="J19">
-        <v>1.033926787345181</v>
+        <v>1.033279365697259</v>
       </c>
       <c r="K19">
-        <v>1.039080190659395</v>
+        <v>1.038044427777033</v>
       </c>
       <c r="L19">
-        <v>1.03625728388912</v>
+        <v>1.03573556539927</v>
       </c>
       <c r="M19">
-        <v>1.045291681456071</v>
+        <v>1.044863068286552</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044983126572904</v>
+        <v>1.044644128453401</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038777881643485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038061642652146</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022413800610835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005460825579586</v>
+        <v>1.004854362589388</v>
       </c>
       <c r="D20">
-        <v>1.024522435797601</v>
+        <v>1.023562482231963</v>
       </c>
       <c r="E20">
-        <v>1.021169785232483</v>
+        <v>1.020695068217653</v>
       </c>
       <c r="F20">
-        <v>1.029921930261418</v>
+        <v>1.029530271108383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047150024283678</v>
+        <v>1.046730272359815</v>
       </c>
       <c r="J20">
-        <v>1.032782852511735</v>
+        <v>1.032199430756137</v>
       </c>
       <c r="K20">
-        <v>1.038147370533736</v>
+        <v>1.037203291838812</v>
       </c>
       <c r="L20">
-        <v>1.034850330497862</v>
+        <v>1.03438352566784</v>
       </c>
       <c r="M20">
-        <v>1.043458281322071</v>
+        <v>1.043073007534642</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043007365300653</v>
+        <v>1.042702462886405</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038122252641177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037471229036124</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022206317251131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001251658604381</v>
+        <v>1.000760858935593</v>
       </c>
       <c r="D21">
-        <v>1.02181701641437</v>
+        <v>1.021029103178601</v>
       </c>
       <c r="E21">
-        <v>1.01792727527691</v>
+        <v>1.017548216602101</v>
       </c>
       <c r="F21">
-        <v>1.02672047858468</v>
+        <v>1.02640589956121</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046131280181122</v>
+        <v>1.045794256943277</v>
       </c>
       <c r="J21">
-        <v>1.030697141539653</v>
+        <v>1.030226803358124</v>
       </c>
       <c r="K21">
-        <v>1.036396520744167</v>
+        <v>1.035622732487024</v>
       </c>
       <c r="L21">
-        <v>1.032576787588504</v>
+        <v>1.03220458847398</v>
       </c>
       <c r="M21">
-        <v>1.041212710193534</v>
+        <v>1.04090369763571</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041189485878774</v>
+        <v>1.040944923350194</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03688755797103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036357267074573</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021882251201438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9985767989614709</v>
+        <v>0.9981595983261581</v>
       </c>
       <c r="D22">
-        <v>1.020100542046564</v>
+        <v>1.019421431670808</v>
       </c>
       <c r="E22">
-        <v>1.015890523219233</v>
+        <v>1.015572181400982</v>
       </c>
       <c r="F22">
-        <v>1.024736036963618</v>
+        <v>1.024470455578756</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04548217874164</v>
+        <v>1.045197391865871</v>
       </c>
       <c r="J22">
-        <v>1.029379584971514</v>
+        <v>1.02898078142222</v>
       </c>
       <c r="K22">
-        <v>1.035284050224626</v>
+        <v>1.034617720756576</v>
       </c>
       <c r="L22">
-        <v>1.031153624411709</v>
+        <v>1.030841336141206</v>
       </c>
       <c r="M22">
-        <v>1.03983289494139</v>
+        <v>1.039572250382683</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040097454837662</v>
+        <v>1.039891172000302</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036087527121991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035631909896389</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021674318884456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9999906038790674</v>
+        <v>0.99953450313722</v>
       </c>
       <c r="D23">
-        <v>1.021001113663496</v>
+        <v>1.020264414303145</v>
       </c>
       <c r="E23">
-        <v>1.016965523509317</v>
+        <v>1.01661512318289</v>
       </c>
       <c r="F23">
-        <v>1.025784618815978</v>
+        <v>1.025493159035004</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045821851282135</v>
+        <v>1.045509494625921</v>
       </c>
       <c r="J23">
-        <v>1.030071996044368</v>
+        <v>1.029635422669252</v>
       </c>
       <c r="K23">
-        <v>1.035864254378709</v>
+        <v>1.035141070018394</v>
       </c>
       <c r="L23">
-        <v>1.031903011629355</v>
+        <v>1.031559103021567</v>
       </c>
       <c r="M23">
-        <v>1.040560618656622</v>
+        <v>1.040274438134978</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040673399457415</v>
+        <v>1.040446906781279</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036488145399551</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035991382710537</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021781559102492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005472098895025</v>
+        <v>1.004866778924723</v>
       </c>
       <c r="D24">
-        <v>1.024514142410314</v>
+        <v>1.023555205671427</v>
       </c>
       <c r="E24">
-        <v>1.021150500220435</v>
+        <v>1.020676857744379</v>
       </c>
       <c r="F24">
-        <v>1.029867613456358</v>
+        <v>1.029476740052354</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047131339908437</v>
+        <v>1.046712398369913</v>
       </c>
       <c r="J24">
-        <v>1.032761119945261</v>
+        <v>1.032178764765383</v>
       </c>
       <c r="K24">
-        <v>1.0381240171543</v>
+        <v>1.037180918475668</v>
       </c>
       <c r="L24">
-        <v>1.034816098284895</v>
+        <v>1.034350340340032</v>
       </c>
       <c r="M24">
-        <v>1.043389765078908</v>
+        <v>1.043005256940402</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042912475157329</v>
+        <v>1.042608163696577</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038078418161724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037425407794158</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02219667453847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011639067537751</v>
+        <v>1.010869109442339</v>
       </c>
       <c r="D25">
-        <v>1.028487888380194</v>
+        <v>1.027280821237925</v>
       </c>
       <c r="E25">
-        <v>1.025889475989964</v>
+        <v>1.025279490538659</v>
       </c>
       <c r="F25">
-        <v>1.034497272273241</v>
+        <v>1.033996522742715</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048574419168295</v>
+        <v>1.04803636973073</v>
       </c>
       <c r="J25">
-        <v>1.035780980686333</v>
+        <v>1.0350361408066</v>
       </c>
       <c r="K25">
-        <v>1.040659495852759</v>
+        <v>1.039469900089673</v>
       </c>
       <c r="L25">
-        <v>1.038098758192744</v>
+        <v>1.037497652106523</v>
       </c>
       <c r="M25">
-        <v>1.046582666195137</v>
+        <v>1.046089052232773</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045439429515123</v>
+        <v>1.045048769708915</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039868268640771</v>
+        <v>1.039040667421349</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022652087228781</v>
       </c>
     </row>
   </sheetData>
